--- a/BackTest/2019-11-18 BackTest ADA.xlsx
+++ b/BackTest/2019-11-18 BackTest ADA.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -5841,13 +5841,17 @@
         <v>51.95000000000005</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="K156" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
@@ -5882,8 +5886,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5911,14 +5921,22 @@
         <v>51.90000000000005</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K158" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5946,14 +5964,22 @@
         <v>52.00000000000005</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>52</v>
+      </c>
+      <c r="K159" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5981,14 +6007,22 @@
         <v>52.00000000000006</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>52</v>
+      </c>
+      <c r="K160" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6056,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6051,14 +6091,22 @@
         <v>52.00000000000006</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>52</v>
+      </c>
+      <c r="K162" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6140,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +6181,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6222,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +6263,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6304,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6345,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6386,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6427,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +6468,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6407,8 +6509,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +6591,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +6632,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +6673,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +6714,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6755,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6796,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +6837,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +6878,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6919,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +6960,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +7001,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +7083,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6926,18 +7118,18 @@
         <v>51.70000000000006</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -6973,9 +7165,11 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+        <v>51.7</v>
+      </c>
+      <c r="K188" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7008,15 +7202,15 @@
         <v>51.75000000000005</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7057,7 +7251,9 @@
       <c r="J190" t="n">
         <v>51.7</v>
       </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7096,9 +7292,11 @@
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+        <v>51.7</v>
+      </c>
+      <c r="K191" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7139,7 +7337,9 @@
       <c r="J192" t="n">
         <v>51.6</v>
       </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7178,9 +7378,11 @@
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+        <v>51.6</v>
+      </c>
+      <c r="K193" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7221,7 +7423,9 @@
       <c r="J194" t="n">
         <v>51.7</v>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7260,9 +7464,11 @@
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+        <v>51.7</v>
+      </c>
+      <c r="K195" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,15 +7501,15 @@
         <v>51.80000000000005</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,15 +7542,15 @@
         <v>51.75000000000005</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7377,15 +7583,15 @@
         <v>51.75000000000005</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7418,15 +7624,15 @@
         <v>51.75000000000005</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7459,15 +7665,15 @@
         <v>51.70000000000005</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7500,15 +7706,15 @@
         <v>51.70000000000005</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7541,15 +7747,15 @@
         <v>51.70000000000005</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7582,15 +7788,15 @@
         <v>51.75000000000005</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7623,15 +7829,15 @@
         <v>51.75000000000005</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7664,15 +7870,15 @@
         <v>51.70000000000005</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7705,15 +7911,15 @@
         <v>51.75000000000005</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7746,15 +7952,15 @@
         <v>51.80000000000005</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,15 +7993,15 @@
         <v>51.80000000000005</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7828,15 +8034,15 @@
         <v>51.80000000000005</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7869,15 +8075,15 @@
         <v>51.95000000000005</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7910,15 +8116,15 @@
         <v>52.05000000000005</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>52</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7951,15 +8157,15 @@
         <v>52.00000000000004</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>52</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7992,15 +8198,15 @@
         <v>52.00000000000004</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>52</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,15 +8239,15 @@
         <v>52.00000000000004</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>52</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8074,15 +8280,15 @@
         <v>52.05000000000004</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>52</v>
-      </c>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8115,15 +8321,15 @@
         <v>52.10000000000004</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8162,7 +8368,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8201,7 +8409,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8240,7 +8450,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8279,7 +8491,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8318,7 +8532,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8357,7 +8573,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8396,7 +8614,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8435,7 +8655,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8474,7 +8696,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8513,7 +8737,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8552,7 +8778,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8591,7 +8819,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8630,7 +8860,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8669,7 +8901,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8708,7 +8942,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8747,7 +8983,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8786,7 +9024,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8825,7 +9065,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8864,7 +9106,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8903,7 +9147,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8942,7 +9188,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8981,7 +9229,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9020,7 +9270,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9059,7 +9311,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9098,7 +9352,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9137,7 +9393,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9176,7 +9434,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9215,7 +9475,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9254,7 +9516,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9293,7 +9557,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9332,7 +9598,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9371,7 +9639,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9410,7 +9680,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9449,7 +9721,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9488,7 +9762,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9527,7 +9803,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9566,7 +9844,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9605,7 +9885,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9644,7 +9926,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9683,7 +9967,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9722,7 +10008,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9761,7 +10049,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9800,7 +10090,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9839,7 +10131,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9878,7 +10172,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9917,7 +10213,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9956,7 +10254,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9995,7 +10295,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10034,7 +10336,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10073,7 +10377,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10112,7 +10418,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10151,7 +10459,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10190,7 +10500,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10229,7 +10541,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10268,7 +10582,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10307,7 +10623,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10346,7 +10664,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10385,7 +10705,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10424,7 +10746,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10463,7 +10787,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10502,7 +10828,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10541,7 +10869,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10580,7 +10910,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10619,7 +10951,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,7 +10992,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10697,7 +11033,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10736,7 +11074,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10775,7 +11115,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10814,7 +11156,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10853,7 +11197,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10892,7 +11238,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10931,7 +11279,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10970,7 +11320,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11009,7 +11361,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11048,7 +11402,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11087,7 +11443,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11126,7 +11484,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11165,7 +11525,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11204,7 +11566,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11243,7 +11607,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11282,7 +11648,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11321,7 +11689,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11360,7 +11730,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11399,7 +11771,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11438,7 +11812,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11477,7 +11853,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11516,7 +11894,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11555,7 +11935,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11594,7 +11976,9 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11633,7 +12017,9 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11672,7 +12058,9 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11711,7 +12099,9 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11750,7 +12140,9 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11789,7 +12181,9 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11828,7 +12222,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11867,7 +12263,9 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11906,7 +12304,9 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-11-18 BackTest ADA.xlsx
+++ b/BackTest/2019-11-18 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M313"/>
+  <dimension ref="A1:M314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="C2" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="D2" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="E2" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1795.3451</v>
+        <v>20375.4827</v>
       </c>
       <c r="G2" t="n">
-        <v>52.69999999999997</v>
+        <v>52.06333333333339</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>52.6</v>
       </c>
       <c r="C3" t="n">
-        <v>53.1</v>
+        <v>52.6</v>
       </c>
       <c r="D3" t="n">
-        <v>53.1</v>
+        <v>52.6</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>52.6</v>
       </c>
       <c r="F3" t="n">
-        <v>65149.4863</v>
+        <v>1795.3451</v>
       </c>
       <c r="G3" t="n">
-        <v>52.84999999999997</v>
+        <v>52.07333333333339</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="C4" t="n">
         <v>53.1</v>
@@ -512,13 +512,13 @@
         <v>53.1</v>
       </c>
       <c r="E4" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F4" t="n">
-        <v>9651.876</v>
+        <v>65149.4863</v>
       </c>
       <c r="G4" t="n">
-        <v>53.09999999999998</v>
+        <v>52.09166666666672</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>53.1</v>
       </c>
       <c r="F5" t="n">
-        <v>8220</v>
+        <v>9651.876</v>
       </c>
       <c r="G5" t="n">
-        <v>53.09999999999998</v>
+        <v>52.11166666666671</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="D6" t="n">
         <v>53.1</v>
       </c>
       <c r="E6" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="F6" t="n">
-        <v>48378.5449</v>
+        <v>8220</v>
       </c>
       <c r="G6" t="n">
-        <v>53.04999999999998</v>
+        <v>52.13000000000005</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E7" t="n">
         <v>52.9</v>
       </c>
       <c r="F7" t="n">
-        <v>12185.0079</v>
+        <v>48378.5449</v>
       </c>
       <c r="G7" t="n">
-        <v>52.94999999999999</v>
+        <v>52.14666666666672</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D8" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F8" t="n">
-        <v>39.7724</v>
+        <v>12185.0079</v>
       </c>
       <c r="G8" t="n">
-        <v>52.99999999999999</v>
+        <v>52.16166666666672</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>53.1</v>
       </c>
       <c r="F9" t="n">
-        <v>394</v>
+        <v>39.7724</v>
       </c>
       <c r="G9" t="n">
-        <v>53.09999999999998</v>
+        <v>52.18000000000005</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C10" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D10" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E10" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="F10" t="n">
-        <v>17046.0605</v>
+        <v>394</v>
       </c>
       <c r="G10" t="n">
-        <v>53.14999999999999</v>
+        <v>52.19833333333338</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D11" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E11" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F11" t="n">
-        <v>13649.0028</v>
+        <v>17046.0605</v>
       </c>
       <c r="G11" t="n">
-        <v>53.14999999999999</v>
+        <v>52.21833333333338</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>53.3</v>
       </c>
       <c r="C12" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="D12" t="n">
         <v>53.3</v>
       </c>
       <c r="E12" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="F12" t="n">
-        <v>811.7879</v>
+        <v>13649.0028</v>
       </c>
       <c r="G12" t="n">
-        <v>53.19999999999998</v>
+        <v>52.23666666666671</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>53.3</v>
       </c>
       <c r="F13" t="n">
-        <v>283.2782</v>
+        <v>811.7879</v>
       </c>
       <c r="G13" t="n">
-        <v>53.29999999999998</v>
+        <v>52.25833333333338</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>53.3</v>
       </c>
       <c r="F14" t="n">
-        <v>3794.7504</v>
+        <v>283.2782</v>
       </c>
       <c r="G14" t="n">
-        <v>53.29999999999999</v>
+        <v>52.27833333333339</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>53.3</v>
       </c>
       <c r="F15" t="n">
-        <v>3781.8295</v>
+        <v>3794.7504</v>
       </c>
       <c r="G15" t="n">
-        <v>53.29999999999999</v>
+        <v>52.30000000000005</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>12563.6482</v>
+        <v>3781.8295</v>
       </c>
       <c r="G16" t="n">
-        <v>53.29999999999999</v>
+        <v>52.32500000000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>53.3</v>
       </c>
       <c r="C17" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="D17" t="n">
         <v>53.3</v>
       </c>
       <c r="E17" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="F17" t="n">
-        <v>33926.2366</v>
+        <v>12563.6482</v>
       </c>
       <c r="G17" t="n">
-        <v>53.24999999999999</v>
+        <v>52.35000000000005</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="C18" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D18" t="n">
         <v>53.3</v>
       </c>
       <c r="E18" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="F18" t="n">
-        <v>8964.068600000001</v>
+        <v>33926.2366</v>
       </c>
       <c r="G18" t="n">
-        <v>53.24999999999999</v>
+        <v>52.37666666666671</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C19" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="D19" t="n">
         <v>53.3</v>
       </c>
       <c r="E19" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F19" t="n">
-        <v>5808.2374</v>
+        <v>8964.068600000001</v>
       </c>
       <c r="G19" t="n">
-        <v>53.24999999999999</v>
+        <v>52.40500000000006</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>53.2</v>
       </c>
       <c r="C20" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D20" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="E20" t="n">
         <v>53.2</v>
       </c>
-      <c r="E20" t="n">
-        <v>53.1</v>
-      </c>
       <c r="F20" t="n">
-        <v>53833.0917</v>
+        <v>5808.2374</v>
       </c>
       <c r="G20" t="n">
-        <v>53.15</v>
+        <v>52.43166666666672</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="C21" t="n">
         <v>53.1</v>
       </c>
-      <c r="C21" t="n">
-        <v>53</v>
-      </c>
       <c r="D21" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E21" t="n">
         <v>53.1</v>
       </c>
-      <c r="E21" t="n">
-        <v>53</v>
-      </c>
       <c r="F21" t="n">
-        <v>13062.4742</v>
+        <v>53833.0917</v>
       </c>
       <c r="G21" t="n">
-        <v>53.05</v>
+        <v>52.45833333333339</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C22" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E22" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F22" t="n">
-        <v>5188.9862</v>
+        <v>13062.4742</v>
       </c>
       <c r="G22" t="n">
-        <v>52.95</v>
+        <v>52.48333333333338</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C23" t="n">
         <v>52.9</v>
       </c>
       <c r="D23" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E23" t="n">
         <v>52.9</v>
       </c>
       <c r="F23" t="n">
-        <v>32378.6673</v>
+        <v>5188.9862</v>
       </c>
       <c r="G23" t="n">
-        <v>52.90000000000001</v>
+        <v>52.50666666666672</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C24" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="E24" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F24" t="n">
-        <v>1434.5194</v>
+        <v>32378.6673</v>
       </c>
       <c r="G24" t="n">
-        <v>52.95</v>
+        <v>52.52833333333339</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
         <v>53</v>
       </c>
       <c r="F25" t="n">
-        <v>33931.381</v>
+        <v>1434.5194</v>
       </c>
       <c r="G25" t="n">
-        <v>53.05</v>
+        <v>52.55166666666673</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D26" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="E26" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="F26" t="n">
-        <v>1460.3239</v>
+        <v>33931.381</v>
       </c>
       <c r="G26" t="n">
-        <v>53.15000000000001</v>
+        <v>52.57333333333339</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>53.3</v>
       </c>
       <c r="C27" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D27" t="n">
         <v>53.3</v>
       </c>
       <c r="E27" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="F27" t="n">
-        <v>4873.7392</v>
+        <v>1460.3239</v>
       </c>
       <c r="G27" t="n">
-        <v>53.25000000000001</v>
+        <v>52.59666666666671</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>53.3</v>
       </c>
       <c r="F28" t="n">
-        <v>544.5006</v>
+        <v>4873.7392</v>
       </c>
       <c r="G28" t="n">
-        <v>53.3</v>
+        <v>52.62166666666671</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>53.3</v>
       </c>
       <c r="C29" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="D29" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E29" t="n">
         <v>53.3</v>
       </c>
       <c r="F29" t="n">
-        <v>22311.0175</v>
+        <v>544.5006</v>
       </c>
       <c r="G29" t="n">
-        <v>53.35</v>
+        <v>52.64333333333339</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>53.3</v>
       </c>
       <c r="C30" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="D30" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="E30" t="n">
         <v>53.3</v>
       </c>
       <c r="F30" t="n">
-        <v>19000</v>
+        <v>22311.0175</v>
       </c>
       <c r="G30" t="n">
-        <v>53.35</v>
+        <v>52.66666666666672</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>53.3</v>
       </c>
       <c r="C31" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="D31" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E31" t="n">
         <v>53.3</v>
       </c>
       <c r="F31" t="n">
-        <v>3234.7347</v>
+        <v>19000</v>
       </c>
       <c r="G31" t="n">
-        <v>53.34999999999999</v>
+        <v>52.68833333333339</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>53.3</v>
       </c>
       <c r="C32" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="D32" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="E32" t="n">
         <v>53.3</v>
       </c>
       <c r="F32" t="n">
-        <v>74.28100000000001</v>
+        <v>3234.7347</v>
       </c>
       <c r="G32" t="n">
-        <v>53.35</v>
+        <v>52.71000000000006</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="C33" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="D33" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="E33" t="n">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="F33" t="n">
-        <v>47212.9025</v>
+        <v>74.28100000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>53.2</v>
+        <v>52.73166666666673</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C34" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="D34" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E34" t="n">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="F34" t="n">
-        <v>33086.2439</v>
+        <v>47212.9025</v>
       </c>
       <c r="G34" t="n">
-        <v>53.00000000000001</v>
+        <v>52.74666666666673</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C35" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="D35" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E35" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="F35" t="n">
-        <v>4860.7294</v>
+        <v>33086.2439</v>
       </c>
       <c r="G35" t="n">
-        <v>52.80000000000001</v>
+        <v>52.7633333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>52.9</v>
       </c>
       <c r="C36" t="n">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
       <c r="D36" t="n">
         <v>52.9</v>
       </c>
       <c r="E36" t="n">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
       <c r="F36" t="n">
-        <v>5419.9426</v>
+        <v>4860.7294</v>
       </c>
       <c r="G36" t="n">
-        <v>52.80000000000001</v>
+        <v>52.77666666666673</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>52.9</v>
       </c>
       <c r="F37" t="n">
-        <v>5397.5559</v>
+        <v>5419.9426</v>
       </c>
       <c r="G37" t="n">
-        <v>52.90000000000001</v>
+        <v>52.79500000000006</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>52.9</v>
       </c>
       <c r="C38" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="D38" t="n">
-        <v>53.2</v>
+        <v>52.9</v>
       </c>
       <c r="E38" t="n">
         <v>52.9</v>
       </c>
       <c r="F38" t="n">
-        <v>213.0098</v>
+        <v>5397.5559</v>
       </c>
       <c r="G38" t="n">
-        <v>53.05000000000001</v>
+        <v>52.81333333333339</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="C39" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D39" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E39" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="F39" t="n">
-        <v>6431.0427</v>
+        <v>213.0098</v>
       </c>
       <c r="G39" t="n">
-        <v>53.25000000000001</v>
+        <v>52.83166666666672</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="C40" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="D40" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E40" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="F40" t="n">
-        <v>12.1118</v>
+        <v>6431.0427</v>
       </c>
       <c r="G40" t="n">
-        <v>53.35000000000002</v>
+        <v>52.85500000000005</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="C41" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="D41" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="E41" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="F41" t="n">
-        <v>9000</v>
+        <v>12.1118</v>
       </c>
       <c r="G41" t="n">
-        <v>53.35000000000002</v>
+        <v>52.87500000000006</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>53.3</v>
       </c>
       <c r="F42" t="n">
-        <v>5859.2739</v>
+        <v>9000</v>
       </c>
       <c r="G42" t="n">
-        <v>53.30000000000001</v>
+        <v>52.89500000000007</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="C43" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="D43" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E43" t="n">
         <v>53.3</v>
       </c>
       <c r="F43" t="n">
-        <v>5292.5168</v>
+        <v>5859.2739</v>
       </c>
       <c r="G43" t="n">
-        <v>53.35000000000002</v>
+        <v>52.91500000000007</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="C44" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="D44" t="n">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="E44" t="n">
         <v>53.3</v>
       </c>
       <c r="F44" t="n">
-        <v>2408.5617</v>
+        <v>5292.5168</v>
       </c>
       <c r="G44" t="n">
-        <v>53.35000000000002</v>
+        <v>52.93500000000007</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C45" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="D45" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="E45" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="F45" t="n">
-        <v>21.0609</v>
+        <v>2408.5617</v>
       </c>
       <c r="G45" t="n">
-        <v>53.25000000000001</v>
+        <v>52.95500000000008</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="C46" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D46" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="E46" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>21.0609</v>
       </c>
       <c r="G46" t="n">
-        <v>53.15000000000001</v>
+        <v>52.97333333333341</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>53.1</v>
       </c>
       <c r="F47" t="n">
-        <v>11347.7286</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="n">
-        <v>53.10000000000002</v>
+        <v>52.99000000000008</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>53.1</v>
       </c>
       <c r="C48" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D48" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E48" t="n">
         <v>53.1</v>
       </c>
       <c r="F48" t="n">
-        <v>25531.20178176</v>
+        <v>11347.7286</v>
       </c>
       <c r="G48" t="n">
-        <v>53.15000000000002</v>
+        <v>53.00833333333341</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C49" t="n">
         <v>53.2</v>
@@ -2087,13 +2087,13 @@
         <v>53.2</v>
       </c>
       <c r="E49" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F49" t="n">
-        <v>66729.32330827</v>
+        <v>25531.20178176</v>
       </c>
       <c r="G49" t="n">
-        <v>53.20000000000003</v>
+        <v>53.02666666666674</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="C50" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="D50" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="E50" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="F50" t="n">
-        <v>12998.8518</v>
+        <v>66729.32330827</v>
       </c>
       <c r="G50" t="n">
-        <v>53.05000000000003</v>
+        <v>53.04333333333341</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>53</v>
       </c>
       <c r="C51" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D51" t="n">
         <v>53</v>
       </c>
       <c r="E51" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F51" t="n">
-        <v>6279.505</v>
+        <v>12998.8518</v>
       </c>
       <c r="G51" t="n">
-        <v>52.95000000000004</v>
+        <v>53.05500000000008</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>53</v>
       </c>
       <c r="C52" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="D52" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="E52" t="n">
         <v>53</v>
       </c>
       <c r="F52" t="n">
-        <v>23035.78173646</v>
+        <v>6279.505</v>
       </c>
       <c r="G52" t="n">
-        <v>53.10000000000004</v>
+        <v>53.06666666666674</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>53</v>
       </c>
       <c r="C53" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="D53" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="E53" t="n">
         <v>53</v>
       </c>
       <c r="F53" t="n">
-        <v>8875.715099999999</v>
+        <v>23035.78173646</v>
       </c>
       <c r="G53" t="n">
-        <v>53.10000000000004</v>
+        <v>53.08166666666673</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="E54" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="F54" t="n">
-        <v>10.0998</v>
+        <v>8875.715099999999</v>
       </c>
       <c r="G54" t="n">
-        <v>53.10000000000004</v>
+        <v>53.09166666666673</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="C55" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D55" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E55" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="F55" t="n">
-        <v>12.2228</v>
+        <v>10.0998</v>
       </c>
       <c r="G55" t="n">
-        <v>53.25000000000004</v>
+        <v>53.10166666666673</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="C56" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="D56" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="E56" t="n">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="F56" t="n">
-        <v>22303.4799</v>
+        <v>12.2228</v>
       </c>
       <c r="G56" t="n">
-        <v>53.15000000000004</v>
+        <v>53.11166666666674</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>53</v>
       </c>
       <c r="C57" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="D57" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="E57" t="n">
         <v>53</v>
       </c>
       <c r="F57" t="n">
-        <v>7444.4942</v>
+        <v>22303.4799</v>
       </c>
       <c r="G57" t="n">
-        <v>53.10000000000004</v>
+        <v>53.11666666666675</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>53</v>
       </c>
       <c r="C58" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="D58" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="E58" t="n">
         <v>53</v>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>7444.4942</v>
       </c>
       <c r="G58" t="n">
-        <v>53.10000000000005</v>
+        <v>53.12333333333341</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="C59" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="D59" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="E59" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="F59" t="n">
-        <v>11.0117</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>53.15000000000006</v>
+        <v>53.12666666666674</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C60" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="D60" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="E60" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="F60" t="n">
-        <v>14405.332</v>
+        <v>11.0117</v>
       </c>
       <c r="G60" t="n">
-        <v>53.25000000000006</v>
+        <v>53.1333333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="C61" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="D61" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="E61" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="F61" t="n">
-        <v>9000.680200000001</v>
+        <v>14405.332</v>
       </c>
       <c r="G61" t="n">
-        <v>53.10000000000006</v>
+        <v>53.1383333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>53</v>
       </c>
       <c r="F62" t="n">
-        <v>5495.0896</v>
+        <v>9000.680200000001</v>
       </c>
       <c r="G62" t="n">
-        <v>53.00000000000005</v>
+        <v>53.14166666666673</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="C63" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="D63" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E63" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F63" t="n">
-        <v>1322.9116</v>
+        <v>5495.0896</v>
       </c>
       <c r="G63" t="n">
-        <v>53.05000000000005</v>
+        <v>53.1483333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="C64" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="D64" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="E64" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="F64" t="n">
-        <v>29073.3957</v>
+        <v>1322.9116</v>
       </c>
       <c r="G64" t="n">
-        <v>52.95000000000005</v>
+        <v>53.1483333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="C65" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="D65" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="E65" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F65" t="n">
-        <v>10256.6353</v>
+        <v>29073.3957</v>
       </c>
       <c r="G65" t="n">
-        <v>52.95000000000005</v>
+        <v>53.1433333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C66" t="n">
         <v>53.1</v>
@@ -2682,13 +2682,13 @@
         <v>53.1</v>
       </c>
       <c r="E66" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F66" t="n">
-        <v>14178.8667</v>
+        <v>10256.6353</v>
       </c>
       <c r="G66" t="n">
-        <v>53.10000000000004</v>
+        <v>53.1433333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>53.1</v>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>14178.8667</v>
       </c>
       <c r="G67" t="n">
-        <v>53.10000000000005</v>
+        <v>53.14500000000007</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>53.1</v>
       </c>
       <c r="F68" t="n">
-        <v>4084.9852</v>
+        <v>10000</v>
       </c>
       <c r="G68" t="n">
-        <v>53.10000000000005</v>
+        <v>53.1483333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="C69" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="D69" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="E69" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="F69" t="n">
-        <v>983.8262</v>
+        <v>4084.9852</v>
       </c>
       <c r="G69" t="n">
-        <v>52.95000000000006</v>
+        <v>53.1483333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="C70" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="D70" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="E70" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="F70" t="n">
-        <v>12.1869</v>
+        <v>983.8262</v>
       </c>
       <c r="G70" t="n">
-        <v>52.95000000000006</v>
+        <v>53.1433333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>53.1</v>
       </c>
       <c r="F71" t="n">
-        <v>5295.4106</v>
+        <v>12.1869</v>
       </c>
       <c r="G71" t="n">
-        <v>53.10000000000006</v>
+        <v>53.14166666666674</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>53.1</v>
       </c>
       <c r="C72" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D72" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E72" t="n">
         <v>53.1</v>
       </c>
       <c r="F72" t="n">
-        <v>19580.4086</v>
+        <v>5295.4106</v>
       </c>
       <c r="G72" t="n">
-        <v>53.15000000000006</v>
+        <v>53.14166666666674</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="C73" t="n">
-        <v>52.8</v>
+        <v>53.2</v>
       </c>
       <c r="D73" t="n">
-        <v>52.8</v>
+        <v>53.2</v>
       </c>
       <c r="E73" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="F73" t="n">
-        <v>916.8903</v>
+        <v>19580.4086</v>
       </c>
       <c r="G73" t="n">
-        <v>53.00000000000007</v>
+        <v>53.14000000000006</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="C74" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="D74" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="E74" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="F74" t="n">
-        <v>11.0008</v>
+        <v>916.8903</v>
       </c>
       <c r="G74" t="n">
-        <v>52.90000000000007</v>
+        <v>53.13166666666673</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>53</v>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>11.0008</v>
       </c>
       <c r="G75" t="n">
-        <v>53.00000000000006</v>
+        <v>53.12666666666673</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>53</v>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G76" t="n">
-        <v>53.00000000000006</v>
+        <v>53.12166666666672</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C77" t="n">
-        <v>52.8</v>
+        <v>53</v>
       </c>
       <c r="D77" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E77" t="n">
-        <v>52.8</v>
+        <v>53</v>
       </c>
       <c r="F77" t="n">
-        <v>25089.5086</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>52.90000000000006</v>
+        <v>53.11666666666672</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C78" t="n">
         <v>52.8</v>
       </c>
       <c r="D78" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E78" t="n">
         <v>52.8</v>
       </c>
       <c r="F78" t="n">
-        <v>8016.2839</v>
+        <v>25089.5086</v>
       </c>
       <c r="G78" t="n">
-        <v>52.80000000000007</v>
+        <v>53.11000000000006</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="C79" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D79" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="E79" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F79" t="n">
-        <v>8079.8016</v>
+        <v>8016.2839</v>
       </c>
       <c r="G79" t="n">
-        <v>52.85000000000007</v>
+        <v>53.10166666666672</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>52.9</v>
       </c>
       <c r="F80" t="n">
-        <v>4132.6673</v>
+        <v>8079.8016</v>
       </c>
       <c r="G80" t="n">
-        <v>52.90000000000007</v>
+        <v>53.09666666666673</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>52.9</v>
       </c>
       <c r="F81" t="n">
-        <v>4479.4735</v>
+        <v>4132.6673</v>
       </c>
       <c r="G81" t="n">
-        <v>52.90000000000006</v>
+        <v>53.0933333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>52.9</v>
       </c>
       <c r="F82" t="n">
-        <v>18070.1121</v>
+        <v>4479.4735</v>
       </c>
       <c r="G82" t="n">
-        <v>52.90000000000006</v>
+        <v>53.09166666666673</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>52.9</v>
       </c>
       <c r="F83" t="n">
-        <v>74032.7023</v>
+        <v>18070.1121</v>
       </c>
       <c r="G83" t="n">
-        <v>52.90000000000006</v>
+        <v>53.09166666666673</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>52.9</v>
       </c>
       <c r="F84" t="n">
-        <v>19481.035</v>
+        <v>74032.7023</v>
       </c>
       <c r="G84" t="n">
-        <v>52.90000000000006</v>
+        <v>53.09166666666673</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C85" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D85" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="E85" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F85" t="n">
-        <v>1800</v>
+        <v>19481.035</v>
       </c>
       <c r="G85" t="n">
-        <v>52.95000000000006</v>
+        <v>53.09000000000007</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C86" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D86" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E86" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F86" t="n">
-        <v>20000.001</v>
+        <v>1800</v>
       </c>
       <c r="G86" t="n">
-        <v>52.95000000000006</v>
+        <v>53.0883333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C87" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D87" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="E87" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F87" t="n">
-        <v>527.8605</v>
+        <v>20000.001</v>
       </c>
       <c r="G87" t="n">
-        <v>52.95000000000006</v>
+        <v>53.08333333333341</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>53</v>
       </c>
       <c r="F88" t="n">
-        <v>16406.4598</v>
+        <v>527.8605</v>
       </c>
       <c r="G88" t="n">
-        <v>53.00000000000006</v>
+        <v>53.0783333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>53</v>
       </c>
       <c r="F89" t="n">
-        <v>340</v>
+        <v>16406.4598</v>
       </c>
       <c r="G89" t="n">
-        <v>53.00000000000006</v>
+        <v>53.0733333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C90" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D90" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E90" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F90" t="n">
-        <v>18289.8941</v>
+        <v>340</v>
       </c>
       <c r="G90" t="n">
-        <v>52.95000000000006</v>
+        <v>53.06666666666673</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>52.9</v>
       </c>
       <c r="F91" t="n">
-        <v>14982.7057</v>
+        <v>18289.8941</v>
       </c>
       <c r="G91" t="n">
-        <v>52.90000000000006</v>
+        <v>53.06000000000007</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>52.9</v>
       </c>
       <c r="F92" t="n">
-        <v>63065.1948</v>
+        <v>14982.7057</v>
       </c>
       <c r="G92" t="n">
-        <v>52.90000000000006</v>
+        <v>53.05166666666673</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>52.9</v>
       </c>
       <c r="F93" t="n">
-        <v>28085.9658</v>
+        <v>63065.1948</v>
       </c>
       <c r="G93" t="n">
-        <v>52.90000000000006</v>
+        <v>53.04500000000007</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C94" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D94" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="E94" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F94" t="n">
-        <v>2628.7976</v>
+        <v>28085.9658</v>
       </c>
       <c r="G94" t="n">
-        <v>52.95000000000006</v>
+        <v>53.04166666666674</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>2628.7976</v>
       </c>
       <c r="G95" t="n">
-        <v>53.00000000000006</v>
+        <v>53.0433333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="C96" t="n">
         <v>53</v>
       </c>
       <c r="D96" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E96" t="n">
         <v>53</v>
       </c>
       <c r="F96" t="n">
-        <v>32287.0001</v>
+        <v>2628.7976</v>
       </c>
       <c r="G96" t="n">
-        <v>53.00000000000006</v>
+        <v>53.0483333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C97" t="n">
         <v>53</v>
       </c>
       <c r="D97" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E97" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F97" t="n">
-        <v>50745.8897</v>
+        <v>32287.0001</v>
       </c>
       <c r="G97" t="n">
-        <v>53.00000000000006</v>
+        <v>53.05000000000007</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>53</v>
       </c>
       <c r="E98" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F98" t="n">
-        <v>5515.3169</v>
+        <v>50745.8897</v>
       </c>
       <c r="G98" t="n">
-        <v>53.00000000000006</v>
+        <v>53.05166666666673</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>53</v>
       </c>
       <c r="F99" t="n">
-        <v>599.0377</v>
+        <v>5515.3169</v>
       </c>
       <c r="G99" t="n">
-        <v>53.00000000000006</v>
+        <v>53.0483333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>53</v>
       </c>
       <c r="F100" t="n">
-        <v>1304.1017</v>
+        <v>599.0377</v>
       </c>
       <c r="G100" t="n">
-        <v>53.00000000000006</v>
+        <v>53.0433333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>53</v>
       </c>
       <c r="F101" t="n">
-        <v>37072.5816</v>
+        <v>1304.1017</v>
       </c>
       <c r="G101" t="n">
-        <v>53.00000000000006</v>
+        <v>53.03666666666673</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>53</v>
       </c>
       <c r="F102" t="n">
-        <v>5750.9347</v>
+        <v>37072.5816</v>
       </c>
       <c r="G102" t="n">
-        <v>53.00000000000006</v>
+        <v>53.03166666666673</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C103" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D103" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E103" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>5750.9347</v>
       </c>
       <c r="G103" t="n">
-        <v>52.95000000000006</v>
+        <v>53.02666666666673</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>52.9</v>
       </c>
       <c r="F104" t="n">
-        <v>34433.7006</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
-        <v>52.90000000000006</v>
+        <v>53.01833333333339</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>52.9</v>
       </c>
       <c r="F105" t="n">
-        <v>4592.9255</v>
+        <v>34433.7006</v>
       </c>
       <c r="G105" t="n">
-        <v>52.90000000000006</v>
+        <v>53.01166666666673</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>52.9</v>
       </c>
       <c r="F106" t="n">
-        <v>11330.1772</v>
+        <v>4592.9255</v>
       </c>
       <c r="G106" t="n">
-        <v>52.90000000000006</v>
+        <v>53.00666666666673</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>52.9</v>
       </c>
       <c r="F107" t="n">
-        <v>32556.6891</v>
+        <v>11330.1772</v>
       </c>
       <c r="G107" t="n">
-        <v>52.90000000000006</v>
+        <v>53.0033333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C108" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D108" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E108" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="F108" t="n">
-        <v>1235.1199</v>
+        <v>32556.6891</v>
       </c>
       <c r="G108" t="n">
-        <v>52.85000000000007</v>
+        <v>53.00000000000007</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>52.8</v>
       </c>
       <c r="F109" t="n">
-        <v>4100.781</v>
+        <v>1235.1199</v>
       </c>
       <c r="G109" t="n">
-        <v>52.80000000000005</v>
+        <v>52.99333333333341</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4216,19 @@
         <v>52.8</v>
       </c>
       <c r="C110" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D110" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="E110" t="n">
         <v>52.8</v>
       </c>
       <c r="F110" t="n">
-        <v>76214.5817</v>
+        <v>4100.781</v>
       </c>
       <c r="G110" t="n">
-        <v>52.85000000000006</v>
+        <v>52.98666666666675</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="C111" t="n">
         <v>52.9</v>
@@ -4257,13 +4257,13 @@
         <v>53</v>
       </c>
       <c r="E111" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F111" t="n">
-        <v>55123.4951</v>
+        <v>76214.5817</v>
       </c>
       <c r="G111" t="n">
-        <v>52.90000000000006</v>
+        <v>52.98666666666675</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C112" t="n">
         <v>52.9</v>
       </c>
       <c r="D112" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E112" t="n">
         <v>52.9</v>
       </c>
       <c r="F112" t="n">
-        <v>48543.3897</v>
+        <v>55123.4951</v>
       </c>
       <c r="G112" t="n">
-        <v>52.90000000000005</v>
+        <v>52.98500000000008</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>52.9</v>
       </c>
       <c r="F113" t="n">
-        <v>3118.4097</v>
+        <v>48543.3897</v>
       </c>
       <c r="G113" t="n">
-        <v>52.90000000000005</v>
+        <v>52.98000000000009</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C114" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D114" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E114" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="F114" t="n">
-        <v>3958.9149</v>
+        <v>3118.4097</v>
       </c>
       <c r="G114" t="n">
-        <v>52.85000000000004</v>
+        <v>52.97833333333342</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>52.8</v>
       </c>
       <c r="F115" t="n">
-        <v>950</v>
+        <v>3958.9149</v>
       </c>
       <c r="G115" t="n">
-        <v>52.80000000000003</v>
+        <v>52.97166666666676</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,19 +4426,19 @@
         <v>52.8</v>
       </c>
       <c r="C116" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="D116" t="n">
         <v>52.8</v>
       </c>
       <c r="E116" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="F116" t="n">
-        <v>30917.4</v>
+        <v>950</v>
       </c>
       <c r="G116" t="n">
-        <v>52.75000000000004</v>
+        <v>52.96333333333343</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C117" t="n">
         <v>52.7</v>
-      </c>
-      <c r="C117" t="n">
-        <v>52.6</v>
       </c>
       <c r="D117" t="n">
         <v>52.8</v>
       </c>
       <c r="E117" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="F117" t="n">
-        <v>52650.70903181</v>
+        <v>30917.4</v>
       </c>
       <c r="G117" t="n">
-        <v>52.65000000000004</v>
+        <v>52.95833333333342</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C118" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="D118" t="n">
         <v>52.8</v>
       </c>
       <c r="E118" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="F118" t="n">
-        <v>21.04166666</v>
+        <v>52650.70903181</v>
       </c>
       <c r="G118" t="n">
-        <v>52.70000000000004</v>
+        <v>52.94833333333342</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="C119" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="D119" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="E119" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="F119" t="n">
-        <v>22.6379</v>
+        <v>21.04166666</v>
       </c>
       <c r="G119" t="n">
-        <v>52.75000000000004</v>
+        <v>52.94500000000009</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="C120" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="D120" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="E120" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="F120" t="n">
-        <v>7240.9462</v>
+        <v>22.6379</v>
       </c>
       <c r="G120" t="n">
-        <v>52.65000000000004</v>
+        <v>52.93500000000009</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="C121" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="D121" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="E121" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="F121" t="n">
-        <v>5106.849</v>
+        <v>7240.9462</v>
       </c>
       <c r="G121" t="n">
-        <v>52.55000000000003</v>
+        <v>52.92500000000009</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="C122" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="D122" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="E122" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="F122" t="n">
-        <v>2056.9797</v>
+        <v>5106.849</v>
       </c>
       <c r="G122" t="n">
-        <v>52.55000000000004</v>
+        <v>52.91666666666676</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>52.6</v>
       </c>
       <c r="F123" t="n">
-        <v>67.1636</v>
+        <v>2056.9797</v>
       </c>
       <c r="G123" t="n">
-        <v>52.60000000000004</v>
+        <v>52.91000000000009</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4715,10 @@
         <v>52.6</v>
       </c>
       <c r="F124" t="n">
-        <v>6060.4204</v>
+        <v>67.1636</v>
       </c>
       <c r="G124" t="n">
-        <v>52.60000000000004</v>
+        <v>52.90166666666676</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="C125" t="n">
         <v>52.6</v>
@@ -4747,13 +4747,13 @@
         <v>52.6</v>
       </c>
       <c r="E125" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="F125" t="n">
-        <v>22601</v>
+        <v>6060.4204</v>
       </c>
       <c r="G125" t="n">
-        <v>52.60000000000004</v>
+        <v>52.89833333333342</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="C126" t="n">
         <v>52.6</v>
@@ -4782,13 +4782,13 @@
         <v>52.6</v>
       </c>
       <c r="E126" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="F126" t="n">
-        <v>995.6168</v>
+        <v>22601</v>
       </c>
       <c r="G126" t="n">
-        <v>52.60000000000004</v>
+        <v>52.89000000000009</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>52.6</v>
       </c>
       <c r="F127" t="n">
-        <v>1936.6529</v>
+        <v>995.6168</v>
       </c>
       <c r="G127" t="n">
-        <v>52.60000000000004</v>
+        <v>52.88166666666675</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>52.6</v>
       </c>
       <c r="F128" t="n">
-        <v>34533.0782</v>
+        <v>1936.6529</v>
       </c>
       <c r="G128" t="n">
-        <v>52.60000000000004</v>
+        <v>52.87333333333342</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>52.6</v>
       </c>
       <c r="F129" t="n">
-        <v>42.0327</v>
+        <v>34533.0782</v>
       </c>
       <c r="G129" t="n">
-        <v>52.60000000000004</v>
+        <v>52.86500000000009</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>52.6</v>
       </c>
       <c r="F130" t="n">
-        <v>7007.2196</v>
+        <v>42.0327</v>
       </c>
       <c r="G130" t="n">
-        <v>52.60000000000004</v>
+        <v>52.86166666666675</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>52.6</v>
       </c>
       <c r="F131" t="n">
-        <v>4087.4629</v>
+        <v>7007.2196</v>
       </c>
       <c r="G131" t="n">
-        <v>52.60000000000004</v>
+        <v>52.85333333333342</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="C132" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="D132" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="E132" t="n">
-        <v>52.4</v>
+        <v>52.6</v>
       </c>
       <c r="F132" t="n">
-        <v>21424.5784</v>
+        <v>4087.4629</v>
       </c>
       <c r="G132" t="n">
-        <v>52.55000000000004</v>
+        <v>52.84500000000008</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="C133" t="n">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="D133" t="n">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="E133" t="n">
         <v>52.4</v>
       </c>
       <c r="F133" t="n">
-        <v>8008.31542865</v>
+        <v>21424.5784</v>
       </c>
       <c r="G133" t="n">
-        <v>52.60000000000004</v>
+        <v>52.83333333333341</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>52.4</v>
       </c>
       <c r="C134" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="D134" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="E134" t="n">
         <v>52.4</v>
       </c>
       <c r="F134" t="n">
-        <v>1794.4936</v>
+        <v>8008.31542865</v>
       </c>
       <c r="G134" t="n">
-        <v>52.55000000000004</v>
+        <v>52.83166666666674</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>52.4</v>
       </c>
       <c r="F135" t="n">
-        <v>10630.7716</v>
+        <v>1794.4936</v>
       </c>
       <c r="G135" t="n">
-        <v>52.40000000000004</v>
+        <v>52.82166666666674</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5129,16 +5129,16 @@
         <v>52.4</v>
       </c>
       <c r="D136" t="n">
-        <v>52.9</v>
+        <v>52.4</v>
       </c>
       <c r="E136" t="n">
         <v>52.4</v>
       </c>
       <c r="F136" t="n">
-        <v>190189.25921285</v>
+        <v>10630.7716</v>
       </c>
       <c r="G136" t="n">
-        <v>52.40000000000003</v>
+        <v>52.81166666666675</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5164,16 +5164,16 @@
         <v>52.4</v>
       </c>
       <c r="D137" t="n">
-        <v>52.4</v>
+        <v>52.9</v>
       </c>
       <c r="E137" t="n">
         <v>52.4</v>
       </c>
       <c r="F137" t="n">
-        <v>16810.9558</v>
+        <v>190189.25921285</v>
       </c>
       <c r="G137" t="n">
-        <v>52.40000000000003</v>
+        <v>52.80166666666675</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="C138" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="D138" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="E138" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="F138" t="n">
-        <v>4420.9406</v>
+        <v>16810.9558</v>
       </c>
       <c r="G138" t="n">
-        <v>52.45000000000003</v>
+        <v>52.79500000000008</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>52.5</v>
       </c>
       <c r="F139" t="n">
-        <v>100.2068</v>
+        <v>4420.9406</v>
       </c>
       <c r="G139" t="n">
-        <v>52.50000000000003</v>
+        <v>52.79000000000008</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>52.5</v>
       </c>
       <c r="F140" t="n">
-        <v>2.8631</v>
+        <v>100.2068</v>
       </c>
       <c r="G140" t="n">
-        <v>52.50000000000003</v>
+        <v>52.78333333333341</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="C141" t="n">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="D141" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="E141" t="n">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="F141" t="n">
-        <v>49569.8873</v>
+        <v>2.8631</v>
       </c>
       <c r="G141" t="n">
-        <v>52.40000000000003</v>
+        <v>52.77666666666674</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="C142" t="n">
         <v>52.3</v>
       </c>
-      <c r="C142" t="n">
-        <v>52.2</v>
-      </c>
       <c r="D142" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="E142" t="n">
         <v>52.3</v>
       </c>
-      <c r="E142" t="n">
-        <v>52.2</v>
-      </c>
       <c r="F142" t="n">
-        <v>481856.1587</v>
+        <v>49569.8873</v>
       </c>
       <c r="G142" t="n">
-        <v>52.25000000000003</v>
+        <v>52.76666666666674</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="C143" t="n">
         <v>52.2</v>
       </c>
-      <c r="C143" t="n">
-        <v>52.4</v>
-      </c>
       <c r="D143" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="E143" t="n">
         <v>52.2</v>
       </c>
       <c r="F143" t="n">
-        <v>225654.199</v>
+        <v>481856.1587</v>
       </c>
       <c r="G143" t="n">
-        <v>52.30000000000003</v>
+        <v>52.75500000000007</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="C144" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="D144" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="E144" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="F144" t="n">
-        <v>1315.6348</v>
+        <v>225654.199</v>
       </c>
       <c r="G144" t="n">
-        <v>52.35000000000003</v>
+        <v>52.74666666666674</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5441,19 @@
         <v>52.3</v>
       </c>
       <c r="C145" t="n">
-        <v>52.1</v>
+        <v>52.3</v>
       </c>
       <c r="D145" t="n">
         <v>52.3</v>
       </c>
       <c r="E145" t="n">
-        <v>52.1</v>
+        <v>52.3</v>
       </c>
       <c r="F145" t="n">
-        <v>89507.13009999999</v>
+        <v>1315.6348</v>
       </c>
       <c r="G145" t="n">
-        <v>52.20000000000003</v>
+        <v>52.73666666666674</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="C146" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D146" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="E146" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F146" t="n">
-        <v>2000</v>
+        <v>89507.13009999999</v>
       </c>
       <c r="G146" t="n">
-        <v>52.05000000000003</v>
+        <v>52.72166666666674</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>52</v>
       </c>
       <c r="F147" t="n">
-        <v>648.375</v>
+        <v>2000</v>
       </c>
       <c r="G147" t="n">
-        <v>52.00000000000004</v>
+        <v>52.70666666666673</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C148" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D148" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="E148" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F148" t="n">
-        <v>9653.2547</v>
+        <v>648.375</v>
       </c>
       <c r="G148" t="n">
-        <v>52.05000000000004</v>
+        <v>52.69000000000007</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C149" t="n">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="D149" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E149" t="n">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="F149" t="n">
-        <v>31122.0312</v>
+        <v>9653.2547</v>
       </c>
       <c r="G149" t="n">
-        <v>52.00000000000004</v>
+        <v>52.67500000000007</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="C150" t="n">
         <v>51.9</v>
       </c>
       <c r="D150" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="E150" t="n">
         <v>51.9</v>
       </c>
       <c r="F150" t="n">
-        <v>2000</v>
+        <v>31122.0312</v>
       </c>
       <c r="G150" t="n">
-        <v>51.90000000000005</v>
+        <v>52.65666666666674</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>51.9</v>
       </c>
       <c r="F151" t="n">
-        <v>66729.3233</v>
+        <v>2000</v>
       </c>
       <c r="G151" t="n">
-        <v>51.90000000000005</v>
+        <v>52.64000000000007</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>51.9</v>
       </c>
       <c r="F152" t="n">
-        <v>18140.8822</v>
+        <v>66729.3233</v>
       </c>
       <c r="G152" t="n">
-        <v>51.90000000000005</v>
+        <v>52.62333333333341</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>51.9</v>
       </c>
       <c r="F153" t="n">
-        <v>9596.5</v>
+        <v>18140.8822</v>
       </c>
       <c r="G153" t="n">
-        <v>51.90000000000005</v>
+        <v>52.60666666666673</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>51.9</v>
       </c>
       <c r="F154" t="n">
-        <v>2962.1351</v>
+        <v>9596.5</v>
       </c>
       <c r="G154" t="n">
-        <v>51.90000000000005</v>
+        <v>52.59000000000007</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>51.9</v>
       </c>
       <c r="F155" t="n">
-        <v>35435.992</v>
+        <v>2962.1351</v>
       </c>
       <c r="G155" t="n">
-        <v>51.90000000000005</v>
+        <v>52.57166666666674</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,35 +5823,31 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="C156" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="D156" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="E156" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="F156" t="n">
-        <v>1434.1778</v>
+        <v>35435.992</v>
       </c>
       <c r="G156" t="n">
-        <v>51.95000000000005</v>
+        <v>52.55333333333341</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="K156" t="n">
-        <v>51.9</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
@@ -5862,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="C157" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="D157" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="E157" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="F157" t="n">
-        <v>6100.9406</v>
+        <v>1434.1778</v>
       </c>
       <c r="G157" t="n">
-        <v>51.90000000000005</v>
+        <v>52.53666666666674</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5886,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5906,37 +5896,29 @@
         <v>51.8</v>
       </c>
       <c r="C158" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="D158" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="E158" t="n">
         <v>51.8</v>
       </c>
       <c r="F158" t="n">
-        <v>2015.9348</v>
+        <v>6100.9406</v>
       </c>
       <c r="G158" t="n">
-        <v>51.90000000000005</v>
+        <v>52.51666666666674</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K158" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5946,7 +5928,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="C159" t="n">
         <v>52</v>
@@ -5955,31 +5937,23 @@
         <v>52</v>
       </c>
       <c r="E159" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="F159" t="n">
-        <v>931.0713</v>
+        <v>2015.9348</v>
       </c>
       <c r="G159" t="n">
-        <v>52.00000000000005</v>
+        <v>52.50000000000008</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>52</v>
-      </c>
-      <c r="K159" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5989,7 +5963,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="C160" t="n">
         <v>52</v>
@@ -5998,31 +5972,23 @@
         <v>52</v>
       </c>
       <c r="E160" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="F160" t="n">
-        <v>7337.3717</v>
+        <v>931.0713</v>
       </c>
       <c r="G160" t="n">
-        <v>52.00000000000006</v>
+        <v>52.48333333333341</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>52</v>
-      </c>
-      <c r="K160" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +5998,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="C161" t="n">
         <v>52</v>
@@ -6041,13 +6007,13 @@
         <v>52</v>
       </c>
       <c r="E161" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="F161" t="n">
-        <v>14400.3561</v>
+        <v>7337.3717</v>
       </c>
       <c r="G161" t="n">
-        <v>52.00000000000006</v>
+        <v>52.46666666666674</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6056,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6085,28 +6045,20 @@
         <v>52</v>
       </c>
       <c r="F162" t="n">
-        <v>57470.3342</v>
+        <v>14400.3561</v>
       </c>
       <c r="G162" t="n">
-        <v>52.00000000000006</v>
+        <v>52.45000000000007</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>52</v>
-      </c>
-      <c r="K162" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6116,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="C163" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="D163" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="E163" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="F163" t="n">
-        <v>10000</v>
+        <v>57470.3342</v>
       </c>
       <c r="G163" t="n">
-        <v>52.10000000000005</v>
+        <v>52.43333333333341</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6140,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6157,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>52</v>
+        <v>52.2</v>
       </c>
       <c r="C164" t="n">
-        <v>52</v>
+        <v>52.2</v>
       </c>
       <c r="D164" t="n">
         <v>52.2</v>
       </c>
       <c r="E164" t="n">
-        <v>52</v>
+        <v>52.2</v>
       </c>
       <c r="F164" t="n">
-        <v>49889.587</v>
+        <v>10000</v>
       </c>
       <c r="G164" t="n">
-        <v>52.10000000000005</v>
+        <v>52.42166666666674</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6181,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6204,16 +6144,16 @@
         <v>52</v>
       </c>
       <c r="D165" t="n">
-        <v>52</v>
+        <v>52.2</v>
       </c>
       <c r="E165" t="n">
         <v>52</v>
       </c>
       <c r="F165" t="n">
-        <v>160</v>
+        <v>49889.587</v>
       </c>
       <c r="G165" t="n">
-        <v>52.00000000000005</v>
+        <v>52.40666666666674</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6222,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6251,10 +6185,10 @@
         <v>52</v>
       </c>
       <c r="F166" t="n">
-        <v>846.091</v>
+        <v>160</v>
       </c>
       <c r="G166" t="n">
-        <v>52.00000000000006</v>
+        <v>52.39166666666674</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6263,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6292,10 +6220,10 @@
         <v>52</v>
       </c>
       <c r="F167" t="n">
-        <v>31001.8864</v>
+        <v>846.091</v>
       </c>
       <c r="G167" t="n">
-        <v>52.00000000000006</v>
+        <v>52.37666666666674</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6304,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6333,10 +6255,10 @@
         <v>52</v>
       </c>
       <c r="F168" t="n">
-        <v>45974.8026</v>
+        <v>31001.8864</v>
       </c>
       <c r="G168" t="n">
-        <v>52.00000000000006</v>
+        <v>52.36166666666673</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6345,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6371,13 +6287,13 @@
         <v>52</v>
       </c>
       <c r="E169" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="F169" t="n">
-        <v>13381.0566</v>
+        <v>45974.8026</v>
       </c>
       <c r="G169" t="n">
-        <v>52.00000000000006</v>
+        <v>52.34833333333339</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6386,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6412,13 +6322,13 @@
         <v>52</v>
       </c>
       <c r="E170" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="F170" t="n">
-        <v>129.6483</v>
+        <v>13381.0566</v>
       </c>
       <c r="G170" t="n">
-        <v>52.00000000000006</v>
+        <v>52.33500000000006</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6427,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6444,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C171" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D171" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="E171" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F171" t="n">
-        <v>50</v>
+        <v>129.6483</v>
       </c>
       <c r="G171" t="n">
-        <v>52.05000000000005</v>
+        <v>52.32000000000006</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6468,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6485,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C172" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D172" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="E172" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F172" t="n">
-        <v>55772.0166</v>
+        <v>50</v>
       </c>
       <c r="G172" t="n">
-        <v>52.05000000000005</v>
+        <v>52.30666666666672</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6509,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6526,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>52.1</v>
+        <v>52.3</v>
       </c>
       <c r="C173" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D173" t="n">
-        <v>52.1</v>
+        <v>52.3</v>
       </c>
       <c r="E173" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F173" t="n">
-        <v>6955.2872</v>
+        <v>55772.0166</v>
       </c>
       <c r="G173" t="n">
-        <v>52.05000000000005</v>
+        <v>52.29166666666672</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6550,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6579,10 +6465,10 @@
         <v>52.1</v>
       </c>
       <c r="F174" t="n">
-        <v>1258.7783</v>
+        <v>6955.2872</v>
       </c>
       <c r="G174" t="n">
-        <v>52.10000000000005</v>
+        <v>52.27833333333339</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6591,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6620,10 +6500,10 @@
         <v>52.1</v>
       </c>
       <c r="F175" t="n">
-        <v>3395.5188</v>
+        <v>1258.7783</v>
       </c>
       <c r="G175" t="n">
-        <v>52.10000000000005</v>
+        <v>52.26666666666672</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6632,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6661,10 +6535,10 @@
         <v>52.1</v>
       </c>
       <c r="F176" t="n">
-        <v>2117.9978</v>
+        <v>3395.5188</v>
       </c>
       <c r="G176" t="n">
-        <v>52.10000000000005</v>
+        <v>52.25500000000004</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6673,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6690,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C177" t="n">
-        <v>51.8</v>
+        <v>52.1</v>
       </c>
       <c r="D177" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E177" t="n">
-        <v>51.8</v>
+        <v>52.1</v>
       </c>
       <c r="F177" t="n">
-        <v>53674.2852</v>
+        <v>2117.9978</v>
       </c>
       <c r="G177" t="n">
-        <v>51.95000000000006</v>
+        <v>52.24500000000004</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6714,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6731,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="C178" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="D178" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="E178" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="F178" t="n">
-        <v>15901.1499</v>
+        <v>53674.2852</v>
       </c>
       <c r="G178" t="n">
-        <v>51.85000000000007</v>
+        <v>52.23166666666671</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6755,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6772,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="C179" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="D179" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="E179" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="F179" t="n">
-        <v>4776.608</v>
+        <v>15901.1499</v>
       </c>
       <c r="G179" t="n">
-        <v>51.85000000000006</v>
+        <v>52.21666666666671</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6796,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6813,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="C180" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="D180" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="E180" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="F180" t="n">
-        <v>8123.7895</v>
+        <v>4776.608</v>
       </c>
       <c r="G180" t="n">
-        <v>51.85000000000005</v>
+        <v>52.20166666666672</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6837,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6854,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="C181" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="D181" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="E181" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="F181" t="n">
-        <v>3900</v>
+        <v>8123.7895</v>
       </c>
       <c r="G181" t="n">
-        <v>51.85000000000006</v>
+        <v>52.19000000000005</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6878,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6907,10 +6745,10 @@
         <v>51.8</v>
       </c>
       <c r="F182" t="n">
-        <v>50257.4546</v>
+        <v>3900</v>
       </c>
       <c r="G182" t="n">
-        <v>51.80000000000005</v>
+        <v>52.17833333333339</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6919,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6936,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="C183" t="n">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="D183" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="E183" t="n">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="F183" t="n">
-        <v>45856.617</v>
+        <v>50257.4546</v>
       </c>
       <c r="G183" t="n">
-        <v>51.70000000000005</v>
+        <v>52.16500000000006</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6960,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6977,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>51.7</v>
+        <v>51.9</v>
       </c>
       <c r="C184" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="D184" t="n">
-        <v>51.7</v>
+        <v>51.9</v>
       </c>
       <c r="E184" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="F184" t="n">
-        <v>11998.1341</v>
+        <v>45856.617</v>
       </c>
       <c r="G184" t="n">
-        <v>51.65000000000006</v>
+        <v>52.1483333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7001,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7018,38 +6838,36 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="C185" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="D185" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="E185" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="F185" t="n">
-        <v>15065.3575</v>
+        <v>11998.1341</v>
       </c>
       <c r="G185" t="n">
-        <v>51.65000000000006</v>
+        <v>52.1333333333334</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>51.6</v>
+      </c>
       <c r="K185" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>51.6</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7059,22 +6877,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="C186" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="D186" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="E186" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="F186" t="n">
-        <v>141.6276</v>
+        <v>15065.3575</v>
       </c>
       <c r="G186" t="n">
-        <v>51.65000000000006</v>
+        <v>52.11666666666672</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7084,11 +6902,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M186" t="n">
@@ -7100,36 +6918,38 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="C187" t="n">
         <v>51.7</v>
       </c>
       <c r="D187" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="E187" t="n">
         <v>51.7</v>
       </c>
       <c r="F187" t="n">
-        <v>5910</v>
+        <v>141.6276</v>
       </c>
       <c r="G187" t="n">
-        <v>51.70000000000006</v>
+        <v>52.10166666666672</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>51.6</v>
+      </c>
       <c r="K187" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -7144,19 +6964,19 @@
         <v>51.8</v>
       </c>
       <c r="C188" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="D188" t="n">
         <v>51.8</v>
       </c>
       <c r="E188" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="F188" t="n">
-        <v>4067.0188</v>
+        <v>5910</v>
       </c>
       <c r="G188" t="n">
-        <v>51.75000000000005</v>
+        <v>52.08666666666672</v>
       </c>
       <c r="H188" t="n">
         <v>1</v>
@@ -7168,11 +6988,11 @@
         <v>51.7</v>
       </c>
       <c r="K188" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M188" t="n">
@@ -7184,32 +7004,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4067.0188</v>
+      </c>
+      <c r="G189" t="n">
+        <v>52.07333333333339</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
         <v>51.7</v>
       </c>
-      <c r="C189" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="D189" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="E189" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F189" t="n">
-        <v>218.2101</v>
-      </c>
-      <c r="G189" t="n">
-        <v>51.75000000000005</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7237,22 +7059,20 @@
         <v>51.7</v>
       </c>
       <c r="F190" t="n">
-        <v>19380</v>
+        <v>218.2101</v>
       </c>
       <c r="G190" t="n">
-        <v>51.70000000000005</v>
+        <v>52.05833333333339</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>51.7</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7268,34 +7088,32 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="C191" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="D191" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="E191" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="F191" t="n">
-        <v>1354.654</v>
+        <v>19380</v>
       </c>
       <c r="G191" t="n">
-        <v>51.65000000000006</v>
+        <v>52.04333333333339</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>51.7</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7323,22 +7141,20 @@
         <v>51.6</v>
       </c>
       <c r="F192" t="n">
-        <v>1047.0707</v>
+        <v>1354.654</v>
       </c>
       <c r="G192" t="n">
-        <v>51.60000000000006</v>
+        <v>52.02666666666673</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>51.6</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7354,22 +7170,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="C193" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="D193" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="E193" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="F193" t="n">
-        <v>10612.3083</v>
+        <v>1047.0707</v>
       </c>
       <c r="G193" t="n">
-        <v>51.65000000000006</v>
+        <v>52.01166666666673</v>
       </c>
       <c r="H193" t="n">
         <v>1</v>
@@ -7381,7 +7197,7 @@
         <v>51.6</v>
       </c>
       <c r="K193" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7409,22 +7225,20 @@
         <v>51.7</v>
       </c>
       <c r="F194" t="n">
-        <v>1020</v>
+        <v>10612.3083</v>
       </c>
       <c r="G194" t="n">
-        <v>51.70000000000006</v>
+        <v>51.99500000000005</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>51.7</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7440,22 +7254,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="C195" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="D195" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="E195" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="F195" t="n">
-        <v>52.1295</v>
+        <v>1020</v>
       </c>
       <c r="G195" t="n">
-        <v>51.75000000000005</v>
+        <v>51.98333333333338</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
@@ -7467,7 +7281,7 @@
         <v>51.7</v>
       </c>
       <c r="K195" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7495,20 +7309,22 @@
         <v>51.8</v>
       </c>
       <c r="F196" t="n">
-        <v>4140.1011</v>
+        <v>52.1295</v>
       </c>
       <c r="G196" t="n">
-        <v>51.80000000000005</v>
+        <v>51.97333333333339</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>51.7</v>
+      </c>
       <c r="K196" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7524,32 +7340,34 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="C197" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="D197" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="E197" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="F197" t="n">
-        <v>18568.4396</v>
+        <v>4140.1011</v>
       </c>
       <c r="G197" t="n">
-        <v>51.75000000000005</v>
+        <v>51.96333333333339</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>51.8</v>
+      </c>
       <c r="K197" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7565,22 +7383,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="C198" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="D198" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="E198" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="F198" t="n">
-        <v>6740</v>
+        <v>18568.4396</v>
       </c>
       <c r="G198" t="n">
-        <v>51.75000000000005</v>
+        <v>51.95166666666672</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7590,7 +7408,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7606,22 +7424,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="C199" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="D199" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="E199" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="F199" t="n">
-        <v>2000</v>
+        <v>6740</v>
       </c>
       <c r="G199" t="n">
-        <v>51.75000000000005</v>
+        <v>51.94000000000005</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7631,7 +7449,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -7659,10 +7477,10 @@
         <v>51.7</v>
       </c>
       <c r="F200" t="n">
-        <v>2776.3583</v>
+        <v>2000</v>
       </c>
       <c r="G200" t="n">
-        <v>51.70000000000005</v>
+        <v>51.92666666666672</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7672,7 +7490,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -7700,10 +7518,10 @@
         <v>51.7</v>
       </c>
       <c r="F201" t="n">
-        <v>25667.8623</v>
+        <v>2776.3583</v>
       </c>
       <c r="G201" t="n">
-        <v>51.70000000000005</v>
+        <v>51.91333333333338</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7713,7 +7531,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -7741,10 +7559,10 @@
         <v>51.7</v>
       </c>
       <c r="F202" t="n">
-        <v>22616.9</v>
+        <v>25667.8623</v>
       </c>
       <c r="G202" t="n">
-        <v>51.70000000000005</v>
+        <v>51.90333333333338</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7754,7 +7572,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -7770,22 +7588,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="C203" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="D203" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="E203" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="F203" t="n">
-        <v>1108.3168</v>
+        <v>22616.9</v>
       </c>
       <c r="G203" t="n">
-        <v>51.75000000000005</v>
+        <v>51.89500000000005</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7795,7 +7613,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -7811,22 +7629,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="C204" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="D204" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="E204" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="F204" t="n">
-        <v>51.7041</v>
+        <v>1108.3168</v>
       </c>
       <c r="G204" t="n">
-        <v>51.75000000000005</v>
+        <v>51.88500000000004</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7836,7 +7654,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -7864,10 +7682,10 @@
         <v>51.7</v>
       </c>
       <c r="F205" t="n">
-        <v>58713.8516</v>
+        <v>51.7041</v>
       </c>
       <c r="G205" t="n">
-        <v>51.70000000000005</v>
+        <v>51.87500000000004</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7877,7 +7695,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -7893,22 +7711,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="C206" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="D206" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="E206" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="F206" t="n">
-        <v>9245.589900000001</v>
+        <v>58713.8516</v>
       </c>
       <c r="G206" t="n">
-        <v>51.75000000000005</v>
+        <v>51.86833333333337</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7918,7 +7736,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -7946,10 +7764,10 @@
         <v>51.8</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>9245.589900000001</v>
       </c>
       <c r="G207" t="n">
-        <v>51.80000000000005</v>
+        <v>51.86500000000004</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7959,7 +7777,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -7987,10 +7805,10 @@
         <v>51.8</v>
       </c>
       <c r="F208" t="n">
-        <v>280.3</v>
+        <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>51.80000000000005</v>
+        <v>51.86166666666671</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8000,7 +7818,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -8028,10 +7846,10 @@
         <v>51.8</v>
       </c>
       <c r="F209" t="n">
-        <v>56.2858</v>
+        <v>280.3</v>
       </c>
       <c r="G209" t="n">
-        <v>51.80000000000005</v>
+        <v>51.85666666666671</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8041,7 +7859,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -8057,22 +7875,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>52.1</v>
+        <v>51.8</v>
       </c>
       <c r="C210" t="n">
-        <v>52.1</v>
+        <v>51.8</v>
       </c>
       <c r="D210" t="n">
-        <v>52.1</v>
+        <v>51.8</v>
       </c>
       <c r="E210" t="n">
-        <v>52.1</v>
+        <v>51.8</v>
       </c>
       <c r="F210" t="n">
-        <v>1194.6218</v>
+        <v>56.2858</v>
       </c>
       <c r="G210" t="n">
-        <v>51.95000000000005</v>
+        <v>51.85500000000005</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8082,7 +7900,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -8098,22 +7916,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C211" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D211" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E211" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F211" t="n">
-        <v>4027.2607</v>
+        <v>1194.6218</v>
       </c>
       <c r="G211" t="n">
-        <v>52.05000000000005</v>
+        <v>51.85833333333338</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8123,7 +7941,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8151,10 +7969,10 @@
         <v>52</v>
       </c>
       <c r="F212" t="n">
-        <v>8639.6919</v>
+        <v>4027.2607</v>
       </c>
       <c r="G212" t="n">
-        <v>52.00000000000004</v>
+        <v>51.86000000000004</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8164,7 +7982,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8192,10 +8010,10 @@
         <v>52</v>
       </c>
       <c r="F213" t="n">
-        <v>30207.0623</v>
+        <v>8639.6919</v>
       </c>
       <c r="G213" t="n">
-        <v>52.00000000000004</v>
+        <v>51.86166666666671</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8205,7 +8023,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8233,10 +8051,10 @@
         <v>52</v>
       </c>
       <c r="F214" t="n">
-        <v>77061.6612</v>
+        <v>30207.0623</v>
       </c>
       <c r="G214" t="n">
-        <v>52.00000000000004</v>
+        <v>51.86333333333337</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8246,7 +8064,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8265,19 +8083,19 @@
         <v>52</v>
       </c>
       <c r="C215" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D215" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="E215" t="n">
         <v>52</v>
       </c>
       <c r="F215" t="n">
-        <v>30487.125</v>
+        <v>77061.6612</v>
       </c>
       <c r="G215" t="n">
-        <v>52.05000000000004</v>
+        <v>51.86500000000004</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8287,7 +8105,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8303,7 +8121,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C216" t="n">
         <v>52.1</v>
@@ -8312,13 +8130,13 @@
         <v>52.1</v>
       </c>
       <c r="E216" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F216" t="n">
-        <v>4924.1275</v>
+        <v>30487.125</v>
       </c>
       <c r="G216" t="n">
-        <v>52.10000000000004</v>
+        <v>51.86833333333337</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8328,7 +8146,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8356,10 +8174,10 @@
         <v>52.1</v>
       </c>
       <c r="F217" t="n">
-        <v>3648.6866</v>
+        <v>4924.1275</v>
       </c>
       <c r="G217" t="n">
-        <v>52.10000000000004</v>
+        <v>51.87000000000003</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8369,7 +8187,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8388,19 +8206,19 @@
         <v>52.1</v>
       </c>
       <c r="C218" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="D218" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="E218" t="n">
         <v>52.1</v>
       </c>
       <c r="F218" t="n">
-        <v>791.0573000000001</v>
+        <v>3648.6866</v>
       </c>
       <c r="G218" t="n">
-        <v>52.15000000000005</v>
+        <v>51.87500000000003</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8410,7 +8228,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8426,22 +8244,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="C219" t="n">
         <v>52.2</v>
-      </c>
-      <c r="C219" t="n">
-        <v>52</v>
       </c>
       <c r="D219" t="n">
         <v>52.2</v>
       </c>
       <c r="E219" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F219" t="n">
-        <v>60243.2347</v>
+        <v>791.0573000000001</v>
       </c>
       <c r="G219" t="n">
-        <v>52.10000000000005</v>
+        <v>51.87833333333336</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8451,7 +8269,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8467,22 +8285,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C220" t="n">
         <v>52</v>
       </c>
-      <c r="C220" t="n">
-        <v>52.1</v>
-      </c>
       <c r="D220" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="E220" t="n">
         <v>52</v>
       </c>
       <c r="F220" t="n">
-        <v>1686.9516</v>
+        <v>60243.2347</v>
       </c>
       <c r="G220" t="n">
-        <v>52.05000000000005</v>
+        <v>51.87833333333336</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8492,7 +8310,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8511,19 +8329,19 @@
         <v>52</v>
       </c>
       <c r="C221" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D221" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E221" t="n">
         <v>52</v>
       </c>
       <c r="F221" t="n">
-        <v>5929.5936</v>
+        <v>1686.9516</v>
       </c>
       <c r="G221" t="n">
-        <v>52.05000000000004</v>
+        <v>51.88000000000002</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8533,7 +8351,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8561,10 +8379,10 @@
         <v>52</v>
       </c>
       <c r="F222" t="n">
-        <v>63.8371</v>
+        <v>5929.5936</v>
       </c>
       <c r="G222" t="n">
-        <v>52.00000000000004</v>
+        <v>51.88000000000002</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8574,7 +8392,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8590,22 +8408,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C223" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D223" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="E223" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F223" t="n">
-        <v>2254.0328</v>
+        <v>63.8371</v>
       </c>
       <c r="G223" t="n">
-        <v>52.05000000000004</v>
+        <v>51.88000000000002</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8615,7 +8433,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8631,22 +8449,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C224" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D224" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E224" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F224" t="n">
-        <v>569.6254</v>
+        <v>2254.0328</v>
       </c>
       <c r="G224" t="n">
-        <v>52.05000000000004</v>
+        <v>51.87833333333336</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8656,7 +8474,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8684,10 +8502,10 @@
         <v>52</v>
       </c>
       <c r="F225" t="n">
-        <v>57269.5892</v>
+        <v>569.6254</v>
       </c>
       <c r="G225" t="n">
-        <v>52.00000000000004</v>
+        <v>51.87833333333336</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8697,7 +8515,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8725,10 +8543,10 @@
         <v>52</v>
       </c>
       <c r="F226" t="n">
-        <v>9990.860000000001</v>
+        <v>57269.5892</v>
       </c>
       <c r="G226" t="n">
-        <v>52.00000000000004</v>
+        <v>51.87833333333336</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8738,7 +8556,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8754,22 +8572,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C227" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D227" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="E227" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F227" t="n">
-        <v>100</v>
+        <v>9990.860000000001</v>
       </c>
       <c r="G227" t="n">
-        <v>52.05000000000004</v>
+        <v>51.87833333333336</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8779,7 +8597,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8795,22 +8613,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C228" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D228" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E228" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F228" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="G228" t="n">
-        <v>52.05000000000004</v>
+        <v>51.88000000000002</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8820,7 +8638,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8848,10 +8666,10 @@
         <v>52</v>
       </c>
       <c r="F229" t="n">
-        <v>7913.0194</v>
+        <v>1500</v>
       </c>
       <c r="G229" t="n">
-        <v>52.00000000000004</v>
+        <v>51.88000000000002</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8861,7 +8679,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8877,22 +8695,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C230" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D230" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="E230" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F230" t="n">
-        <v>269.269</v>
+        <v>7913.0194</v>
       </c>
       <c r="G230" t="n">
-        <v>52.05000000000004</v>
+        <v>51.88000000000002</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8902,7 +8720,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8930,10 +8748,10 @@
         <v>52.1</v>
       </c>
       <c r="F231" t="n">
-        <v>3626.0207</v>
+        <v>269.269</v>
       </c>
       <c r="G231" t="n">
-        <v>52.10000000000004</v>
+        <v>51.88166666666669</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8943,7 +8761,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8971,10 +8789,10 @@
         <v>52.1</v>
       </c>
       <c r="F232" t="n">
-        <v>24922.3767</v>
+        <v>3626.0207</v>
       </c>
       <c r="G232" t="n">
-        <v>52.10000000000004</v>
+        <v>51.88166666666669</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8984,7 +8802,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9012,10 +8830,10 @@
         <v>52.1</v>
       </c>
       <c r="F233" t="n">
-        <v>12217.9188</v>
+        <v>24922.3767</v>
       </c>
       <c r="G233" t="n">
-        <v>52.10000000000004</v>
+        <v>51.88333333333335</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9025,7 +8843,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9053,10 +8871,10 @@
         <v>52.1</v>
       </c>
       <c r="F234" t="n">
-        <v>10258.0162</v>
+        <v>12217.9188</v>
       </c>
       <c r="G234" t="n">
-        <v>52.10000000000004</v>
+        <v>51.88333333333335</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9066,7 +8884,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9082,22 +8900,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C235" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="D235" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="E235" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="F235" t="n">
-        <v>114723</v>
+        <v>10258.0162</v>
       </c>
       <c r="G235" t="n">
-        <v>52.20000000000003</v>
+        <v>51.88333333333335</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9107,7 +8925,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9135,10 +8953,10 @@
         <v>52.3</v>
       </c>
       <c r="F236" t="n">
-        <v>21.3439</v>
+        <v>114723</v>
       </c>
       <c r="G236" t="n">
-        <v>52.30000000000003</v>
+        <v>51.88666666666669</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9148,7 +8966,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9176,10 +8994,10 @@
         <v>52.3</v>
       </c>
       <c r="F237" t="n">
-        <v>5736.1377</v>
+        <v>21.3439</v>
       </c>
       <c r="G237" t="n">
-        <v>52.30000000000002</v>
+        <v>51.89000000000003</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9189,7 +9007,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9208,19 +9026,19 @@
         <v>52.3</v>
       </c>
       <c r="C238" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="D238" t="n">
         <v>52.3</v>
       </c>
       <c r="E238" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="F238" t="n">
-        <v>7501.8562</v>
+        <v>5736.1377</v>
       </c>
       <c r="G238" t="n">
-        <v>52.25000000000002</v>
+        <v>51.89833333333336</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9230,7 +9048,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9249,19 +9067,19 @@
         <v>52.3</v>
       </c>
       <c r="C239" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="D239" t="n">
         <v>52.3</v>
       </c>
       <c r="E239" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="F239" t="n">
-        <v>204.2949</v>
+        <v>7501.8562</v>
       </c>
       <c r="G239" t="n">
-        <v>52.25000000000002</v>
+        <v>51.90333333333336</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9271,7 +9089,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9299,10 +9117,10 @@
         <v>52.3</v>
       </c>
       <c r="F240" t="n">
-        <v>956.8373</v>
+        <v>204.2949</v>
       </c>
       <c r="G240" t="n">
-        <v>52.30000000000002</v>
+        <v>51.9116666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9312,7 +9130,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9328,22 +9146,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="C241" t="n">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="D241" t="n">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="E241" t="n">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="F241" t="n">
-        <v>20000</v>
+        <v>956.8373</v>
       </c>
       <c r="G241" t="n">
-        <v>52.40000000000001</v>
+        <v>51.91833333333336</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9353,7 +9171,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9369,22 +9187,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="C242" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="D242" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="E242" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="F242" t="n">
-        <v>6930.7248</v>
+        <v>20000</v>
       </c>
       <c r="G242" t="n">
-        <v>52.45000000000001</v>
+        <v>51.93000000000003</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9394,7 +9212,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9410,7 +9228,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="C243" t="n">
         <v>52.4</v>
@@ -9419,13 +9237,13 @@
         <v>52.4</v>
       </c>
       <c r="E243" t="n">
-        <v>52.2</v>
+        <v>52.4</v>
       </c>
       <c r="F243" t="n">
-        <v>61924.4247</v>
+        <v>6930.7248</v>
       </c>
       <c r="G243" t="n">
-        <v>52.40000000000001</v>
+        <v>51.94000000000003</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9435,7 +9253,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9451,7 +9269,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C244" t="n">
         <v>52.4</v>
@@ -9460,13 +9278,13 @@
         <v>52.4</v>
       </c>
       <c r="E244" t="n">
-        <v>52.4</v>
+        <v>52.2</v>
       </c>
       <c r="F244" t="n">
-        <v>8154.0073</v>
+        <v>61924.4247</v>
       </c>
       <c r="G244" t="n">
-        <v>52.40000000000001</v>
+        <v>51.95333333333336</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9476,7 +9294,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9492,22 +9310,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="C245" t="n">
-        <v>52.6</v>
+        <v>52.4</v>
       </c>
       <c r="D245" t="n">
-        <v>52.6</v>
+        <v>52.4</v>
       </c>
       <c r="E245" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="F245" t="n">
-        <v>19878.5758</v>
+        <v>8154.0073</v>
       </c>
       <c r="G245" t="n">
-        <v>52.5</v>
+        <v>51.96500000000003</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9517,7 +9335,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9533,7 +9351,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="C246" t="n">
         <v>52.6</v>
@@ -9542,13 +9360,13 @@
         <v>52.6</v>
       </c>
       <c r="E246" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="F246" t="n">
-        <v>741.7329999999999</v>
+        <v>19878.5758</v>
       </c>
       <c r="G246" t="n">
-        <v>52.59999999999999</v>
+        <v>51.9816666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9558,7 +9376,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9586,10 +9404,10 @@
         <v>52.6</v>
       </c>
       <c r="F247" t="n">
-        <v>1750.2339</v>
+        <v>741.7329999999999</v>
       </c>
       <c r="G247" t="n">
-        <v>52.59999999999999</v>
+        <v>51.9966666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9599,7 +9417,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9627,10 +9445,10 @@
         <v>52.6</v>
       </c>
       <c r="F248" t="n">
-        <v>21015.2479</v>
+        <v>1750.2339</v>
       </c>
       <c r="G248" t="n">
-        <v>52.59999999999999</v>
+        <v>52.0116666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9640,7 +9458,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9668,10 +9486,10 @@
         <v>52.6</v>
       </c>
       <c r="F249" t="n">
-        <v>48013.6535</v>
+        <v>21015.2479</v>
       </c>
       <c r="G249" t="n">
-        <v>52.59999999999999</v>
+        <v>52.02500000000003</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9681,7 +9499,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9709,10 +9527,10 @@
         <v>52.6</v>
       </c>
       <c r="F250" t="n">
-        <v>38681.61798821</v>
+        <v>48013.6535</v>
       </c>
       <c r="G250" t="n">
-        <v>52.59999999999999</v>
+        <v>52.04000000000003</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9722,7 +9540,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9750,10 +9568,10 @@
         <v>52.6</v>
       </c>
       <c r="F251" t="n">
-        <v>29.1131</v>
+        <v>38681.61798821</v>
       </c>
       <c r="G251" t="n">
-        <v>52.59999999999999</v>
+        <v>52.05500000000004</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9763,7 +9581,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9779,22 +9597,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="C252" t="n">
         <v>52.6</v>
       </c>
       <c r="D252" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="E252" t="n">
         <v>52.6</v>
       </c>
       <c r="F252" t="n">
-        <v>3356.8612</v>
+        <v>29.1131</v>
       </c>
       <c r="G252" t="n">
-        <v>52.59999999999999</v>
+        <v>52.0716666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9804,7 +9622,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9820,22 +9638,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="C253" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="D253" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="E253" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="F253" t="n">
-        <v>48.8772</v>
+        <v>3356.8612</v>
       </c>
       <c r="G253" t="n">
-        <v>52.64999999999999</v>
+        <v>52.08833333333337</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9845,7 +9663,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9873,10 +9691,10 @@
         <v>52.7</v>
       </c>
       <c r="F254" t="n">
-        <v>5203.3598</v>
+        <v>48.8772</v>
       </c>
       <c r="G254" t="n">
-        <v>52.7</v>
+        <v>52.10500000000003</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9886,7 +9704,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9902,22 +9720,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="C255" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="D255" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="E255" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="F255" t="n">
-        <v>170641.0228</v>
+        <v>5203.3598</v>
       </c>
       <c r="G255" t="n">
-        <v>52.6</v>
+        <v>52.1216666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9927,7 +9745,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9943,22 +9761,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="C256" t="n">
-        <v>52.8</v>
+        <v>52.5</v>
       </c>
       <c r="D256" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="E256" t="n">
-        <v>52.8</v>
+        <v>52.5</v>
       </c>
       <c r="F256" t="n">
-        <v>30801.8457</v>
+        <v>170641.0228</v>
       </c>
       <c r="G256" t="n">
-        <v>52.65</v>
+        <v>52.13333333333336</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9968,7 +9786,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9996,10 +9814,10 @@
         <v>52.8</v>
       </c>
       <c r="F257" t="n">
-        <v>1086.1495</v>
+        <v>30801.8457</v>
       </c>
       <c r="G257" t="n">
-        <v>52.8</v>
+        <v>52.15000000000003</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10009,7 +9827,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -10025,22 +9843,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="C258" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="D258" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="E258" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="F258" t="n">
-        <v>109.4994</v>
+        <v>1086.1495</v>
       </c>
       <c r="G258" t="n">
-        <v>52.75000000000001</v>
+        <v>52.16833333333337</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10050,7 +9868,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -10078,10 +9896,10 @@
         <v>52.7</v>
       </c>
       <c r="F259" t="n">
-        <v>37.95066413</v>
+        <v>109.4994</v>
       </c>
       <c r="G259" t="n">
-        <v>52.70000000000001</v>
+        <v>52.18333333333337</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10091,7 +9909,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -10107,22 +9925,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="C260" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="D260" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="E260" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="F260" t="n">
-        <v>1893.3075</v>
+        <v>37.95066413</v>
       </c>
       <c r="G260" t="n">
-        <v>52.60000000000002</v>
+        <v>52.20000000000003</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10132,7 +9950,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -10148,22 +9966,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C261" t="n">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="D261" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="E261" t="n">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="F261" t="n">
-        <v>10.8102</v>
+        <v>1893.3075</v>
       </c>
       <c r="G261" t="n">
-        <v>52.60000000000002</v>
+        <v>52.21333333333337</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10173,7 +9991,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -10201,10 +10019,10 @@
         <v>52.7</v>
       </c>
       <c r="F262" t="n">
-        <v>1900</v>
+        <v>10.8102</v>
       </c>
       <c r="G262" t="n">
-        <v>52.70000000000002</v>
+        <v>52.23000000000003</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10214,7 +10032,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -10242,10 +10060,10 @@
         <v>52.7</v>
       </c>
       <c r="F263" t="n">
-        <v>10</v>
+        <v>1900</v>
       </c>
       <c r="G263" t="n">
-        <v>52.70000000000001</v>
+        <v>52.2466666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10255,7 +10073,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10283,10 +10101,10 @@
         <v>52.7</v>
       </c>
       <c r="F264" t="n">
-        <v>2854.803</v>
+        <v>10</v>
       </c>
       <c r="G264" t="n">
-        <v>52.70000000000001</v>
+        <v>52.26166666666669</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10296,7 +10114,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10312,22 +10130,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="C265" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="D265" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="E265" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="F265" t="n">
-        <v>5000</v>
+        <v>2854.803</v>
       </c>
       <c r="G265" t="n">
-        <v>52.55</v>
+        <v>52.27833333333336</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10337,7 +10155,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10353,22 +10171,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="C266" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="D266" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="E266" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="F266" t="n">
-        <v>3252.8755</v>
+        <v>5000</v>
       </c>
       <c r="G266" t="n">
-        <v>52.45000000000001</v>
+        <v>52.29000000000003</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10378,7 +10196,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10406,10 +10224,10 @@
         <v>52.5</v>
       </c>
       <c r="F267" t="n">
-        <v>5736.1377</v>
+        <v>3252.8755</v>
       </c>
       <c r="G267" t="n">
-        <v>52.50000000000001</v>
+        <v>52.3016666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10419,7 +10237,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10435,22 +10253,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="C268" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="D268" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="E268" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="F268" t="n">
-        <v>14808.3704</v>
+        <v>5736.1377</v>
       </c>
       <c r="G268" t="n">
-        <v>52.45000000000002</v>
+        <v>52.31333333333336</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10460,7 +10278,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10476,22 +10294,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="C269" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="D269" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="E269" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="F269" t="n">
-        <v>1193.7224</v>
+        <v>14808.3704</v>
       </c>
       <c r="G269" t="n">
-        <v>52.45000000000002</v>
+        <v>52.32333333333336</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10501,7 +10319,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10517,22 +10335,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="C270" t="n">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="D270" t="n">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="E270" t="n">
-        <v>52.7</v>
+        <v>52.5</v>
       </c>
       <c r="F270" t="n">
-        <v>4220.985</v>
+        <v>1193.7224</v>
       </c>
       <c r="G270" t="n">
-        <v>52.60000000000001</v>
+        <v>52.33500000000002</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10542,7 +10360,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10558,22 +10376,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C271" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="D271" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="E271" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="F271" t="n">
-        <v>5563.459</v>
+        <v>4220.985</v>
       </c>
       <c r="G271" t="n">
-        <v>52.75</v>
+        <v>52.34500000000002</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10583,7 +10401,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10611,10 +10429,10 @@
         <v>52.8</v>
       </c>
       <c r="F272" t="n">
-        <v>7370.4337</v>
+        <v>5563.459</v>
       </c>
       <c r="G272" t="n">
-        <v>52.8</v>
+        <v>52.35833333333336</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10624,7 +10442,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10652,10 +10470,10 @@
         <v>52.8</v>
       </c>
       <c r="F273" t="n">
-        <v>10229.3592</v>
+        <v>7370.4337</v>
       </c>
       <c r="G273" t="n">
-        <v>52.8</v>
+        <v>52.37166666666669</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10665,7 +10483,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10681,22 +10499,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="C274" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D274" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="E274" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F274" t="n">
-        <v>880.1159</v>
+        <v>10229.3592</v>
       </c>
       <c r="G274" t="n">
-        <v>52.85</v>
+        <v>52.38500000000003</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10706,7 +10524,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10722,22 +10540,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C275" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D275" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E275" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="F275" t="n">
-        <v>14861.1486</v>
+        <v>880.1159</v>
       </c>
       <c r="G275" t="n">
-        <v>52.85</v>
+        <v>52.40000000000003</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10747,7 +10565,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10775,10 +10593,10 @@
         <v>52.8</v>
       </c>
       <c r="F276" t="n">
-        <v>93.999</v>
+        <v>14861.1486</v>
       </c>
       <c r="G276" t="n">
-        <v>52.8</v>
+        <v>52.4116666666667</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10788,7 +10606,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10804,22 +10622,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="C277" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="D277" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="E277" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="F277" t="n">
-        <v>19000</v>
+        <v>93.999</v>
       </c>
       <c r="G277" t="n">
-        <v>52.7</v>
+        <v>52.42333333333337</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10829,7 +10647,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10857,10 +10675,10 @@
         <v>52.6</v>
       </c>
       <c r="F278" t="n">
-        <v>1336.7999</v>
+        <v>19000</v>
       </c>
       <c r="G278" t="n">
-        <v>52.6</v>
+        <v>52.43166666666671</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10870,7 +10688,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10898,10 +10716,10 @@
         <v>52.6</v>
       </c>
       <c r="F279" t="n">
-        <v>1307.8781</v>
+        <v>1336.7999</v>
       </c>
       <c r="G279" t="n">
-        <v>52.60000000000001</v>
+        <v>52.43833333333338</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10911,7 +10729,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10930,19 +10748,19 @@
         <v>52.6</v>
       </c>
       <c r="C280" t="n">
-        <v>52.4</v>
+        <v>52.6</v>
       </c>
       <c r="D280" t="n">
         <v>52.6</v>
       </c>
       <c r="E280" t="n">
-        <v>52.4</v>
+        <v>52.6</v>
       </c>
       <c r="F280" t="n">
-        <v>11523.2852</v>
+        <v>1307.8781</v>
       </c>
       <c r="G280" t="n">
-        <v>52.50000000000001</v>
+        <v>52.44833333333337</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10952,7 +10770,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10968,22 +10786,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C281" t="n">
-        <v>52.7</v>
+        <v>52.4</v>
       </c>
       <c r="D281" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="E281" t="n">
-        <v>52.7</v>
+        <v>52.4</v>
       </c>
       <c r="F281" t="n">
-        <v>10000</v>
+        <v>11523.2852</v>
       </c>
       <c r="G281" t="n">
-        <v>52.55000000000003</v>
+        <v>52.45333333333338</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10993,7 +10811,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -11009,22 +10827,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="C282" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="D282" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="E282" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="F282" t="n">
-        <v>129.6875</v>
+        <v>10000</v>
       </c>
       <c r="G282" t="n">
-        <v>52.60000000000002</v>
+        <v>52.46500000000004</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -11034,7 +10852,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -11062,10 +10880,10 @@
         <v>52.5</v>
       </c>
       <c r="F283" t="n">
-        <v>11000</v>
+        <v>129.6875</v>
       </c>
       <c r="G283" t="n">
-        <v>52.50000000000002</v>
+        <v>52.47333333333337</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11075,7 +10893,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -11091,22 +10909,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="C284" t="n">
         <v>52.5</v>
       </c>
       <c r="D284" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="E284" t="n">
         <v>52.5</v>
       </c>
       <c r="F284" t="n">
-        <v>5234.0532</v>
+        <v>11000</v>
       </c>
       <c r="G284" t="n">
-        <v>52.50000000000003</v>
+        <v>52.48000000000004</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11116,7 +10934,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -11132,22 +10950,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="C285" t="n">
         <v>52.5</v>
       </c>
       <c r="D285" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="E285" t="n">
         <v>52.5</v>
       </c>
       <c r="F285" t="n">
-        <v>772.4429</v>
+        <v>5234.0532</v>
       </c>
       <c r="G285" t="n">
-        <v>52.50000000000003</v>
+        <v>52.48833333333337</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -11157,7 +10975,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -11176,19 +10994,19 @@
         <v>52.5</v>
       </c>
       <c r="C286" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="D286" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="E286" t="n">
         <v>52.5</v>
       </c>
       <c r="F286" t="n">
-        <v>11783.8629</v>
+        <v>772.4429</v>
       </c>
       <c r="G286" t="n">
-        <v>52.55000000000003</v>
+        <v>52.49666666666671</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -11198,7 +11016,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11214,7 +11032,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="C287" t="n">
         <v>52.6</v>
@@ -11223,13 +11041,13 @@
         <v>52.6</v>
       </c>
       <c r="E287" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="F287" t="n">
-        <v>1164</v>
+        <v>11783.8629</v>
       </c>
       <c r="G287" t="n">
-        <v>52.60000000000002</v>
+        <v>52.5066666666667</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -11239,7 +11057,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11255,22 +11073,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="C288" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="D288" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="E288" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="F288" t="n">
-        <v>4249.2012</v>
+        <v>1164</v>
       </c>
       <c r="G288" t="n">
-        <v>52.45000000000003</v>
+        <v>52.51500000000004</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11280,7 +11098,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11308,10 +11126,10 @@
         <v>52.3</v>
       </c>
       <c r="F289" t="n">
-        <v>400</v>
+        <v>4249.2012</v>
       </c>
       <c r="G289" t="n">
-        <v>52.30000000000003</v>
+        <v>52.52000000000005</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11321,7 +11139,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11337,22 +11155,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="C290" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="D290" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="E290" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="F290" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G290" t="n">
-        <v>52.45000000000002</v>
+        <v>52.52500000000005</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11362,7 +11180,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11378,22 +11196,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C291" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="D291" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="E291" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="F291" t="n">
-        <v>10996.0177</v>
+        <v>200</v>
       </c>
       <c r="G291" t="n">
-        <v>52.75000000000002</v>
+        <v>52.53333333333338</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11403,7 +11221,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11419,7 +11237,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
       <c r="C292" t="n">
         <v>52.9</v>
@@ -11428,13 +11246,13 @@
         <v>52.9</v>
       </c>
       <c r="E292" t="n">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
       <c r="F292" t="n">
-        <v>67675.019</v>
+        <v>10996.0177</v>
       </c>
       <c r="G292" t="n">
-        <v>52.90000000000002</v>
+        <v>52.54666666666672</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11444,7 +11262,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11463,19 +11281,19 @@
         <v>52.9</v>
       </c>
       <c r="C293" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D293" t="n">
         <v>52.9</v>
       </c>
       <c r="E293" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="F293" t="n">
-        <v>52513.167</v>
+        <v>67675.019</v>
       </c>
       <c r="G293" t="n">
-        <v>52.85000000000001</v>
+        <v>52.56000000000005</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11485,7 +11303,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11504,19 +11322,19 @@
         <v>52.9</v>
       </c>
       <c r="C294" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D294" t="n">
         <v>52.9</v>
       </c>
       <c r="E294" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F294" t="n">
-        <v>58920.0758</v>
+        <v>52513.167</v>
       </c>
       <c r="G294" t="n">
-        <v>52.85000000000001</v>
+        <v>52.57166666666672</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11526,7 +11344,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -11554,10 +11372,10 @@
         <v>52.9</v>
       </c>
       <c r="F295" t="n">
-        <v>58518.7487</v>
+        <v>58920.0758</v>
       </c>
       <c r="G295" t="n">
-        <v>52.90000000000001</v>
+        <v>52.58500000000006</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11567,7 +11385,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -11583,22 +11401,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C296" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D296" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="E296" t="n">
         <v>52.9</v>
       </c>
       <c r="F296" t="n">
-        <v>39570.6914</v>
+        <v>58518.7487</v>
       </c>
       <c r="G296" t="n">
-        <v>52.95</v>
+        <v>52.59500000000006</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11608,7 +11426,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -11633,13 +11451,13 @@
         <v>53</v>
       </c>
       <c r="E297" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F297" t="n">
-        <v>59636.4125</v>
+        <v>39570.6914</v>
       </c>
       <c r="G297" t="n">
-        <v>53</v>
+        <v>52.60666666666672</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11649,7 +11467,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11668,19 +11486,19 @@
         <v>53</v>
       </c>
       <c r="C298" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="D298" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E298" t="n">
         <v>53</v>
       </c>
       <c r="F298" t="n">
-        <v>7548.6564</v>
+        <v>59636.4125</v>
       </c>
       <c r="G298" t="n">
-        <v>53.05</v>
+        <v>52.61833333333338</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11690,7 +11508,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11706,22 +11524,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
+        <v>53</v>
+      </c>
+      <c r="C299" t="n">
         <v>53.1</v>
-      </c>
-      <c r="C299" t="n">
-        <v>53</v>
       </c>
       <c r="D299" t="n">
         <v>53.1</v>
       </c>
       <c r="E299" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F299" t="n">
-        <v>5889.9146</v>
+        <v>7548.6564</v>
       </c>
       <c r="G299" t="n">
-        <v>53.05</v>
+        <v>52.63333333333339</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11731,7 +11549,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11750,19 +11568,19 @@
         <v>53.1</v>
       </c>
       <c r="C300" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="D300" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E300" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F300" t="n">
-        <v>102618.597</v>
+        <v>5889.9146</v>
       </c>
       <c r="G300" t="n">
-        <v>53.10000000000001</v>
+        <v>52.64500000000005</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11772,7 +11590,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11788,10 +11606,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C301" t="n">
         <v>53.2</v>
-      </c>
-      <c r="C301" t="n">
-        <v>53.1</v>
       </c>
       <c r="D301" t="n">
         <v>53.2</v>
@@ -11800,10 +11618,10 @@
         <v>53.1</v>
       </c>
       <c r="F301" t="n">
-        <v>51278.1173</v>
+        <v>102618.597</v>
       </c>
       <c r="G301" t="n">
-        <v>53.15000000000001</v>
+        <v>52.66000000000005</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11813,7 +11631,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11829,22 +11647,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="C302" t="n">
         <v>53.1</v>
       </c>
       <c r="D302" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="E302" t="n">
         <v>53.1</v>
       </c>
       <c r="F302" t="n">
-        <v>8726.481900000001</v>
+        <v>51278.1173</v>
       </c>
       <c r="G302" t="n">
-        <v>53.1</v>
+        <v>52.67000000000004</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11854,7 +11672,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11882,10 +11700,10 @@
         <v>53.1</v>
       </c>
       <c r="F303" t="n">
-        <v>2164.7354</v>
+        <v>8726.481900000001</v>
       </c>
       <c r="G303" t="n">
-        <v>53.10000000000001</v>
+        <v>52.68166666666671</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11895,7 +11713,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11914,19 +11732,19 @@
         <v>53.1</v>
       </c>
       <c r="C304" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D304" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E304" t="n">
         <v>53.1</v>
       </c>
       <c r="F304" t="n">
-        <v>2023.2</v>
+        <v>2164.7354</v>
       </c>
       <c r="G304" t="n">
-        <v>53.15000000000002</v>
+        <v>52.69333333333337</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11936,7 +11754,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11964,10 +11782,10 @@
         <v>53.1</v>
       </c>
       <c r="F305" t="n">
-        <v>17682.9289</v>
+        <v>2023.2</v>
       </c>
       <c r="G305" t="n">
-        <v>53.20000000000003</v>
+        <v>52.7066666666667</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11977,7 +11795,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11993,22 +11811,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C306" t="n">
         <v>53.2</v>
       </c>
-      <c r="C306" t="n">
-        <v>53.3</v>
-      </c>
       <c r="D306" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E306" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F306" t="n">
-        <v>53450.704</v>
+        <v>17682.9289</v>
       </c>
       <c r="G306" t="n">
-        <v>53.25000000000002</v>
+        <v>52.7166666666667</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -12018,7 +11836,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -12034,7 +11852,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="C307" t="n">
         <v>53.3</v>
@@ -12043,13 +11861,13 @@
         <v>53.3</v>
       </c>
       <c r="E307" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="F307" t="n">
-        <v>29227.09193245</v>
+        <v>53450.704</v>
       </c>
       <c r="G307" t="n">
-        <v>53.30000000000002</v>
+        <v>52.72833333333337</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -12059,7 +11877,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -12075,22 +11893,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C308" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="D308" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="E308" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="F308" t="n">
-        <v>266991.4234</v>
+        <v>29227.09193245</v>
       </c>
       <c r="G308" t="n">
-        <v>53.10000000000002</v>
+        <v>52.74000000000004</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -12100,7 +11918,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -12116,22 +11934,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="C309" t="n">
         <v>52.9</v>
       </c>
       <c r="D309" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="E309" t="n">
         <v>52.9</v>
       </c>
       <c r="F309" t="n">
-        <v>122514.3068</v>
+        <v>266991.4234</v>
       </c>
       <c r="G309" t="n">
-        <v>52.90000000000001</v>
+        <v>52.74500000000004</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -12141,7 +11959,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -12157,22 +11975,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="C310" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="D310" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="E310" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F310" t="n">
-        <v>599.8200000000001</v>
+        <v>122514.3068</v>
       </c>
       <c r="G310" t="n">
-        <v>53.00000000000001</v>
+        <v>52.75000000000004</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -12182,7 +12000,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -12198,22 +12016,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C311" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D311" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E311" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F311" t="n">
-        <v>50033.8652</v>
+        <v>599.8200000000001</v>
       </c>
       <c r="G311" t="n">
-        <v>53.15000000000002</v>
+        <v>52.75833333333338</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -12223,7 +12041,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -12239,22 +12057,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="C312" t="n">
-        <v>53.5</v>
+        <v>53.2</v>
       </c>
       <c r="D312" t="n">
-        <v>53.5</v>
+        <v>53.2</v>
       </c>
       <c r="E312" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="F312" t="n">
-        <v>237713.3335</v>
+        <v>50033.8652</v>
       </c>
       <c r="G312" t="n">
-        <v>53.35000000000002</v>
+        <v>52.76833333333338</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -12264,7 +12082,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -12280,22 +12098,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C313" t="n">
         <v>53.5</v>
       </c>
-      <c r="C313" t="n">
-        <v>53.6</v>
-      </c>
       <c r="D313" t="n">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="E313" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="F313" t="n">
-        <v>8243.4444</v>
+        <v>237713.3335</v>
       </c>
       <c r="G313" t="n">
-        <v>53.55000000000002</v>
+        <v>52.78333333333338</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -12305,7 +12123,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -12313,6 +12131,47 @@
         </is>
       </c>
       <c r="M313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C314" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="D314" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="E314" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>8243.4444</v>
+      </c>
+      <c r="G314" t="n">
+        <v>52.79833333333338</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M314" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-18 BackTest ADA.xlsx
+++ b/BackTest/2019-11-18 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N382"/>
+  <dimension ref="A1:M382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-18462.96520000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>-32130.55760000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>52</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+        <v>52</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>51.9</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>52</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+        <v>52</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>52</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+        <v>52</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>52</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+        <v>52</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,22 +679,21 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,20 +720,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -784,20 +757,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -824,20 +794,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -864,20 +831,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -904,20 +868,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -944,20 +905,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,24 +940,21 @@
         <v>-94081.96462246001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>51.8</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1024,24 +979,21 @@
         <v>-94489.07802246002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>51.8</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1066,24 +1018,21 @@
         <v>-94489.07802246002</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>51.6</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1108,24 +1057,21 @@
         <v>-94489.07802246002</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>51.6</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1150,24 +1096,21 @@
         <v>-95397.18282246002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>51.6</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1192,24 +1135,21 @@
         <v>-95397.18282246002</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
         <v>51.5</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1234,24 +1174,21 @@
         <v>-95397.18282246002</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
         <v>51.5</v>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1276,24 +1213,21 @@
         <v>-90426.68922246002</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>51.5</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1318,24 +1252,21 @@
         <v>-90426.68922246002</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>51.6</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1360,24 +1291,21 @@
         <v>-90369.59922246002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>51.6</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1402,24 +1330,21 @@
         <v>-90369.59922246002</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>51.8</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1444,24 +1369,21 @@
         <v>-90369.59922246002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>51.8</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1486,24 +1408,21 @@
         <v>-25610.21292246002</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>51.8</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1528,24 +1447,19 @@
         <v>-25610.21292246002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>52</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1570,24 +1484,19 @@
         <v>-25610.21292246002</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>52</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1614,20 +1523,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1654,20 +1560,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1694,20 +1597,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1734,20 +1634,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1774,20 +1671,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1814,20 +1708,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1854,20 +1745,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1894,20 +1782,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1934,20 +1819,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1974,20 +1856,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2014,20 +1893,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2054,20 +1930,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2094,20 +1967,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2134,20 +2004,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2174,20 +2041,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2214,20 +2078,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2254,20 +2115,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2294,20 +2152,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2334,20 +2189,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2374,20 +2226,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2414,20 +2263,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2454,20 +2300,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2494,20 +2337,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2534,20 +2374,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2574,20 +2411,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2614,20 +2448,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2652,22 +2483,19 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2692,22 +2520,19 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2732,22 +2557,19 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2772,22 +2594,19 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2812,22 +2631,19 @@
         <v>29825.78612245998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2854,20 +2670,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2894,20 +2707,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2934,126 +2744,126 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8220</v>
+      </c>
+      <c r="G64" t="n">
+        <v>93179.92732245999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>53</v>
+      </c>
+      <c r="C65" t="n">
+        <v>53</v>
+      </c>
+      <c r="D65" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>48378.5449</v>
+      </c>
+      <c r="G65" t="n">
+        <v>44801.38242245999</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>53</v>
+      </c>
+      <c r="C66" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D66" t="n">
+        <v>53</v>
+      </c>
+      <c r="E66" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12185.0079</v>
+      </c>
+      <c r="G66" t="n">
+        <v>32616.37452245999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>8220</v>
-      </c>
-      <c r="G64" t="n">
-        <v>93179.92732245999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>53</v>
-      </c>
-      <c r="C65" t="n">
-        <v>53</v>
-      </c>
-      <c r="D65" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F65" t="n">
-        <v>48378.5449</v>
-      </c>
-      <c r="G65" t="n">
-        <v>44801.38242245999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>53</v>
-      </c>
-      <c r="C66" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D66" t="n">
-        <v>53</v>
-      </c>
-      <c r="E66" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F66" t="n">
-        <v>12185.0079</v>
-      </c>
-      <c r="G66" t="n">
-        <v>32616.37452245999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3078,18 +2888,15 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3116,16 +2923,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3150,18 +2954,15 @@
         <v>49702.20742245999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3188,16 +2989,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3222,18 +3020,15 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3258,18 +3053,15 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3294,18 +3086,15 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3330,18 +3119,15 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3366,18 +3152,15 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3402,18 +3185,15 @@
         <v>2938.755922459997</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3438,18 +3218,15 @@
         <v>11902.82452246</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3474,18 +3251,15 @@
         <v>6094.587122459998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3510,18 +3284,15 @@
         <v>-47738.50457754</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3546,18 +3317,15 @@
         <v>-60800.97877754</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3582,18 +3350,15 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3618,18 +3383,15 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3656,16 +3418,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3692,16 +3451,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3728,16 +3484,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3764,16 +3517,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3800,16 +3550,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3834,18 +3581,15 @@
         <v>-1978.983977540003</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3870,18 +3614,15 @@
         <v>-20978.98397754</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3908,16 +3649,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3944,16 +3682,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3978,18 +3713,15 @@
         <v>-65031.43277754</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4016,16 +3748,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4052,16 +3781,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4088,16 +3814,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4124,16 +3847,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4160,16 +3880,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4194,18 +3911,15 @@
         <v>-90914.41097754</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4230,18 +3944,15 @@
         <v>-90902.29917754</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4266,18 +3977,15 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4302,18 +4010,15 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4338,18 +4043,15 @@
         <v>-94609.78237754</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4376,16 +4078,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4410,18 +4109,15 @@
         <v>-97039.40497754001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4448,16 +4144,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4484,16 +4177,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4520,16 +4210,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4556,16 +4243,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4592,16 +4276,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4626,18 +4307,15 @@
         <v>-80227.54999578001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4664,16 +4342,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4700,16 +4375,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4736,16 +4408,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4770,18 +4439,15 @@
         <v>-66045.16075932</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4806,18 +4472,15 @@
         <v>-88348.64065931999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4844,16 +4507,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4880,16 +4540,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4914,18 +4571,15 @@
         <v>-82893.13475931999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4950,18 +4604,15 @@
         <v>-97298.46675931998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4988,16 +4639,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5024,16 +4672,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5058,18 +4703,15 @@
         <v>-104976.23535932</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5094,18 +4736,15 @@
         <v>-134049.63105932</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5130,18 +4769,15 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5166,18 +4802,15 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5202,18 +4835,15 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5238,18 +4868,15 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5274,18 +4901,15 @@
         <v>-124776.82195932</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5310,18 +4934,15 @@
         <v>-124764.63505932</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5346,18 +4967,15 @@
         <v>-124764.63505932</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5382,18 +5000,15 @@
         <v>-105184.22645932</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5420,16 +5035,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5456,16 +5068,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5490,18 +5099,15 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5526,18 +5132,15 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5564,16 +5167,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5598,18 +5198,15 @@
         <v>-131179.62455932</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5634,18 +5231,15 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5670,18 +5264,15 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5706,18 +5297,15 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5742,18 +5330,15 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5778,18 +5363,15 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5814,18 +5396,15 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5852,16 +5431,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5888,16 +5464,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5924,16 +5497,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5960,16 +5530,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5996,16 +5563,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6032,16 +5596,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6068,16 +5629,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6104,16 +5662,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6140,16 +5695,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6176,16 +5728,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6212,16 +5761,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6248,16 +5794,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6284,16 +5827,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6320,16 +5860,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6356,16 +5893,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6392,16 +5926,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6428,16 +5959,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6464,16 +5992,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6500,16 +6025,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6536,16 +6058,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6572,16 +6091,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6608,16 +6124,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6644,16 +6157,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6680,16 +6190,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6716,16 +6223,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6752,16 +6256,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6788,16 +6289,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6824,16 +6322,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6860,16 +6355,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6896,16 +6388,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6932,16 +6421,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6968,16 +6454,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7004,16 +6487,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7040,16 +6520,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7076,16 +6553,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7112,16 +6586,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7148,16 +6619,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7184,16 +6652,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7220,16 +6685,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7256,16 +6718,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7292,16 +6751,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7328,16 +6784,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7364,16 +6817,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7400,16 +6850,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7436,16 +6883,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7472,16 +6916,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7508,16 +6949,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7544,16 +6982,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7580,16 +7015,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7616,16 +7048,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7652,16 +7081,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7688,16 +7114,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7724,16 +7147,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7760,16 +7180,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7796,16 +7213,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7832,16 +7246,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7868,16 +7279,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7904,16 +7312,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7940,16 +7345,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7976,16 +7378,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8012,16 +7411,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8048,16 +7444,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8084,16 +7477,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8120,16 +7510,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8156,16 +7543,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8192,16 +7576,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8228,16 +7609,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8264,16 +7642,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8300,16 +7675,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8336,16 +7708,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8372,16 +7741,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8408,16 +7774,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8444,16 +7807,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8480,16 +7840,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8516,16 +7873,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8552,16 +7906,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8588,16 +7939,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8624,16 +7972,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8660,16 +8005,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8696,16 +8038,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8732,16 +8071,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8768,16 +8104,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8804,16 +8137,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8840,16 +8170,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8876,16 +8203,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8912,16 +8236,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8948,16 +8269,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8984,16 +8302,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9020,16 +8335,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9056,16 +8368,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9092,16 +8401,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9128,16 +8434,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9164,16 +8467,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9200,16 +8500,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9236,16 +8533,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9272,16 +8566,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9308,16 +8599,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9344,16 +8632,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9380,16 +8665,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9416,16 +8698,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9452,16 +8731,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9488,16 +8764,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9524,16 +8797,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9560,16 +8830,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9596,16 +8863,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9632,16 +8896,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9668,16 +8929,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9704,16 +8962,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9740,16 +8995,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9776,16 +9028,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9812,16 +9061,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9848,16 +9094,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9884,16 +9127,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9920,16 +9160,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9956,16 +9193,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9992,16 +9226,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10028,16 +9259,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10064,16 +9292,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10098,22 +9323,15 @@
         <v>-788303.0794958199</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K262" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10140,22 +9358,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10180,26 +9389,15 @@
         <v>-788354.7835958198</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K264" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10226,16 +9424,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10262,16 +9457,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10298,16 +9490,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10334,16 +9523,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10370,16 +9556,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10406,16 +9589,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10442,16 +9622,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10478,16 +9655,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10514,16 +9688,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10550,16 +9721,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10586,16 +9754,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10622,16 +9787,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10658,16 +9820,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10694,16 +9853,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10730,16 +9886,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10766,16 +9919,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10802,16 +9952,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10838,16 +9985,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10874,16 +10018,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10910,16 +10051,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10946,16 +10084,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10982,16 +10117,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11018,16 +10150,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11054,16 +10183,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11090,16 +10216,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11126,16 +10249,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11162,16 +10282,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11198,16 +10315,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11234,16 +10348,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11270,16 +10381,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11306,16 +10414,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11342,16 +10447,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11378,16 +10480,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11414,16 +10513,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11450,16 +10546,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11486,16 +10579,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11522,16 +10612,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11558,16 +10645,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11594,16 +10678,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11630,16 +10711,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11666,16 +10744,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11702,16 +10777,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11738,16 +10810,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11774,16 +10843,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11810,16 +10876,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11846,16 +10909,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11882,16 +10942,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11918,16 +10975,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11954,16 +11008,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11990,16 +11041,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12026,16 +11074,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12060,18 +11105,15 @@
         <v>-814012.86079582</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12096,18 +11138,15 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12132,18 +11171,15 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12168,18 +11204,15 @@
         <v>-816015.66769582</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12206,16 +11239,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12242,16 +11272,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12278,16 +11305,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12314,16 +11338,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12350,16 +11371,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12386,16 +11404,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12422,16 +11437,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12458,16 +11470,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12494,16 +11503,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12530,16 +11536,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12566,16 +11569,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12602,16 +11602,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12638,16 +11635,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12674,16 +11668,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12710,16 +11701,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12746,16 +11734,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12782,16 +11767,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12818,16 +11800,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12854,16 +11833,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12890,16 +11866,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12926,16 +11899,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12962,16 +11932,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12998,16 +11965,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13034,16 +11998,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13070,16 +12031,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13106,16 +12064,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13142,16 +12097,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13178,16 +12130,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13214,16 +12163,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13250,16 +12196,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13286,16 +12229,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13322,16 +12262,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13358,16 +12295,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13394,16 +12328,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13430,16 +12361,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13466,16 +12394,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13502,16 +12427,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13538,16 +12460,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13574,16 +12493,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13610,16 +12526,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13646,16 +12559,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13682,16 +12592,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13718,16 +12625,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13754,16 +12658,13 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13790,16 +12691,13 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13826,16 +12724,13 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -13862,16 +12757,13 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -13898,16 +12790,13 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -13934,16 +12823,13 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -13970,16 +12856,13 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14006,16 +12889,13 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14042,16 +12922,13 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14078,16 +12955,13 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14114,16 +12988,13 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -14150,16 +13021,13 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -14186,16 +13054,13 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -14222,16 +13087,13 @@
       <c r="H376" t="n">
         <v>0</v>
       </c>
-      <c r="I376" t="n">
-        <v>0</v>
-      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
-      <c r="M376" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -14256,18 +13118,15 @@
         <v>-672949.4407958206</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
-      <c r="M377" t="n">
-        <v>1</v>
-      </c>
-      <c r="N377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -14292,18 +13151,15 @@
         <v>-537354.3299276206</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
-      <c r="M378" t="n">
-        <v>1</v>
-      </c>
-      <c r="N378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -14328,18 +13184,15 @@
         <v>-609701.5751276206</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
-      <c r="M379" t="n">
-        <v>1</v>
-      </c>
-      <c r="N379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -14364,18 +13217,15 @@
         <v>-609701.5751276206</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
-      <c r="M380" t="n">
-        <v>1</v>
-      </c>
-      <c r="N380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -14402,16 +13252,13 @@
       <c r="H381" t="n">
         <v>0</v>
       </c>
-      <c r="I381" t="n">
-        <v>0</v>
-      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
-      <c r="M381" t="n">
-        <v>1</v>
-      </c>
-      <c r="N381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -14438,18 +13285,15 @@
       <c r="H382" t="n">
         <v>0</v>
       </c>
-      <c r="I382" t="n">
-        <v>0</v>
-      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
-      <c r="M382" t="n">
-        <v>1</v>
-      </c>
-      <c r="N382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest ADA.xlsx
+++ b/BackTest/2019-11-18 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-18462.96520000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-32130.55760000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>52</v>
@@ -523,7 +523,7 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>51.9</v>
@@ -562,11 +562,9 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,11 +599,9 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +636,9 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,11 +673,9 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -940,11 +932,9 @@
         <v>-94081.96462246001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>51.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -979,11 +969,9 @@
         <v>-94489.07802246002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>51.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1018,11 +1006,9 @@
         <v>-94489.07802246002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>51.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1057,11 +1043,9 @@
         <v>-94489.07802246002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1096,11 +1080,9 @@
         <v>-95397.18282246002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>51.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1135,11 +1117,9 @@
         <v>-95397.18282246002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>51.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1174,11 +1154,9 @@
         <v>-95397.18282246002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>51.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1213,11 +1191,9 @@
         <v>-90426.68922246002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>51.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1252,11 +1228,9 @@
         <v>-90426.68922246002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>51.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1291,11 +1265,9 @@
         <v>-90369.59922246002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1330,11 +1302,9 @@
         <v>-90369.59922246002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>51.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1369,11 +1339,9 @@
         <v>-90369.59922246002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>51.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1408,11 +1376,9 @@
         <v>-25610.21292246002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>51.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -2483,7 +2449,7 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2520,7 +2486,7 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2557,7 +2523,7 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2594,7 +2560,7 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2631,7 +2597,7 @@
         <v>29825.78612245998</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2853,16 +2819,18 @@
         <v>32616.37452245999</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2888,11 +2856,15 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2925,7 +2897,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2954,11 +2930,15 @@
         <v>49702.20742245999</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2991,7 +2971,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3020,11 +3004,15 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3053,11 +3041,15 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3086,11 +3078,15 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3119,11 +3115,15 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3152,14 +3152,16 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -3185,7 +3187,7 @@
         <v>2938.755922459997</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3218,7 +3220,7 @@
         <v>11902.82452246</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3251,7 +3253,7 @@
         <v>6094.587122459998</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3284,7 +3286,7 @@
         <v>-47738.50457754</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3317,7 +3319,7 @@
         <v>-60800.97877754</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3350,7 +3352,7 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3383,7 +3385,7 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3416,7 +3418,7 @@
         <v>-64555.44557754001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3449,7 +3451,7 @@
         <v>-30624.06457754</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3482,7 +3484,7 @@
         <v>-29163.74067754</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3515,7 +3517,7 @@
         <v>-24290.00147754</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3548,7 +3550,7 @@
         <v>-24290.00147754</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3581,7 +3583,7 @@
         <v>-1978.983977540003</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3614,7 +3616,7 @@
         <v>-20978.98397754</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3713,7 +3715,7 @@
         <v>-65031.43277754</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3911,7 +3913,7 @@
         <v>-90914.41097754</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3944,7 +3946,7 @@
         <v>-90902.29917754</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3977,7 +3979,7 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4010,7 +4012,7 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4043,7 +4045,7 @@
         <v>-94609.78237754</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4109,7 +4111,7 @@
         <v>-97039.40497754001</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4142,7 +4144,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4175,7 +4177,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4208,7 +4210,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4241,7 +4243,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4274,7 +4276,7 @@
         <v>-86507.05499578001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4307,7 +4309,7 @@
         <v>-80227.54999578001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4340,7 +4342,7 @@
         <v>-57191.76825932</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4373,7 +4375,7 @@
         <v>-66067.48335932</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4406,7 +4408,7 @@
         <v>-66057.38355932001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4439,7 +4441,7 @@
         <v>-66045.16075932</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4472,7 +4474,7 @@
         <v>-88348.64065931999</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4505,7 +4507,7 @@
         <v>-80904.14645931999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4538,7 +4540,7 @@
         <v>-82904.14645931999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4571,7 +4573,7 @@
         <v>-82893.13475931999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4604,7 +4606,7 @@
         <v>-97298.46675931998</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4637,7 +4639,7 @@
         <v>-106299.14695932</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4670,7 +4672,7 @@
         <v>-106299.14695932</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4703,7 +4705,7 @@
         <v>-104976.23535932</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4736,7 +4738,7 @@
         <v>-134049.63105932</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4769,7 +4771,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4802,7 +4804,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4835,7 +4837,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4868,7 +4870,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4901,7 +4903,7 @@
         <v>-124776.82195932</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4934,7 +4936,7 @@
         <v>-124764.63505932</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4967,7 +4969,7 @@
         <v>-124764.63505932</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5000,7 +5002,7 @@
         <v>-105184.22645932</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5033,7 +5035,7 @@
         <v>-106101.11675932</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5066,7 +5068,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5099,7 +5101,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5132,7 +5134,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5165,7 +5167,7 @@
         <v>-131179.62455932</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5198,7 +5200,7 @@
         <v>-131179.62455932</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5231,7 +5233,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5264,7 +5266,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5297,7 +5299,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5330,7 +5332,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5363,7 +5365,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5396,7 +5398,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5429,7 +5431,7 @@
         <v>-121299.82295932</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5462,7 +5464,7 @@
         <v>-141299.82395932</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5495,7 +5497,7 @@
         <v>-140771.96345932</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5528,7 +5530,7 @@
         <v>-140771.96345932</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5561,7 +5563,7 @@
         <v>-140771.96345932</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5594,7 +5596,7 @@
         <v>-159061.85755932</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5627,7 +5629,7 @@
         <v>-159061.85755932</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5660,7 +5662,7 @@
         <v>-159061.85755932</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5693,7 +5695,7 @@
         <v>-159061.85755932</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5726,7 +5728,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5759,7 +5761,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5792,7 +5794,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5825,7 +5827,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5858,7 +5860,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5891,7 +5893,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5924,7 +5926,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5957,7 +5959,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5990,7 +5992,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6023,7 +6025,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6056,7 +6058,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6089,7 +6091,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6122,7 +6124,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6155,7 +6157,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6188,7 +6190,7 @@
         <v>-157868.17985932</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6221,7 +6223,7 @@
         <v>-157868.17985932</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6254,7 +6256,7 @@
         <v>-81653.59815931997</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6287,7 +6289,7 @@
         <v>-81653.59815931997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6320,7 +6322,7 @@
         <v>-81653.59815931997</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6353,7 +6355,7 @@
         <v>-81653.59815931997</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6386,7 +6388,7 @@
         <v>-85612.51305931997</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6419,7 +6421,7 @@
         <v>-85612.51305931997</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6452,7 +6454,7 @@
         <v>-116529.91305932</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6485,7 +6487,7 @@
         <v>-169180.62209113</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6518,7 +6520,7 @@
         <v>-169159.58042447</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6551,7 +6553,7 @@
         <v>-169182.21832447</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6584,7 +6586,7 @@
         <v>-176423.16452447</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6617,7 +6619,7 @@
         <v>-181530.01352447</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6650,7 +6652,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6683,7 +6685,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6716,7 +6718,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6749,7 +6751,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6782,7 +6784,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6815,7 +6817,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6848,7 +6850,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6881,7 +6883,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6914,7 +6916,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6947,7 +6949,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6980,7 +6982,7 @@
         <v>-200897.61222447</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7013,7 +7015,7 @@
         <v>-192889.29679582</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7046,7 +7048,7 @@
         <v>-194683.79039582</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7079,7 +7081,7 @@
         <v>-194683.79039582</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7112,7 +7114,7 @@
         <v>-194683.79039582</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7145,7 +7147,7 @@
         <v>-194683.79039582</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7178,7 +7180,7 @@
         <v>-190262.84979582</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7211,7 +7213,7 @@
         <v>-190262.84979582</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7244,7 +7246,7 @@
         <v>-190262.84979582</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8927,10 +8929,14 @@
         <v>-786247.3944958199</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J250" t="n">
+        <v>51.7</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8963,8 +8969,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8993,11 +9005,19 @@
         <v>-775635.0861958199</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J252" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9059,10 +9079,14 @@
         <v>-775582.9566958199</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J254" t="n">
+        <v>51.7</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
@@ -9092,11 +9116,19 @@
         <v>-775582.9566958199</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J255" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9125,11 +9157,19 @@
         <v>-794151.3962958199</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J256" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9158,10 +9198,14 @@
         <v>-787411.3962958199</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J257" t="n">
+        <v>51.7</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
@@ -9191,11 +9235,19 @@
         <v>-789411.3962958199</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J258" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9224,11 +9276,19 @@
         <v>-789411.3962958199</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J259" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9257,10 +9317,14 @@
         <v>-789411.3962958199</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J260" t="n">
+        <v>51.7</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
@@ -9290,11 +9354,19 @@
         <v>-789411.3962958199</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J261" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9323,11 +9395,19 @@
         <v>-788303.0794958199</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J262" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9356,10 +9436,14 @@
         <v>-788354.7835958198</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J263" t="n">
+        <v>51.8</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9389,11 +9473,19 @@
         <v>-788354.7835958198</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J264" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +9514,19 @@
         <v>-779109.1936958198</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J265" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9455,10 +9555,14 @@
         <v>-779109.1936958198</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J266" t="n">
+        <v>51.8</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
@@ -9488,11 +9592,19 @@
         <v>-779109.1936958198</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J267" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9521,11 +9633,19 @@
         <v>-779109.1936958198</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J268" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9554,10 +9674,14 @@
         <v>-777914.5718958199</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J269" t="n">
+        <v>51.8</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9587,11 +9711,19 @@
         <v>-781941.8325958198</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9620,11 +9752,19 @@
         <v>-781941.8325958198</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>52</v>
+      </c>
+      <c r="J271" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9653,10 +9793,14 @@
         <v>-781941.8325958198</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>52</v>
+      </c>
+      <c r="J272" t="n">
+        <v>52</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -9686,11 +9830,19 @@
         <v>-781941.8325958198</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>52</v>
+      </c>
+      <c r="J273" t="n">
+        <v>52</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9719,11 +9871,19 @@
         <v>-751454.7075958198</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>52</v>
+      </c>
+      <c r="J274" t="n">
+        <v>52</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9752,11 +9912,19 @@
         <v>-751454.7075958198</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>52</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9788,8 +9956,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>52</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9818,11 +9992,19 @@
         <v>-750663.6502958199</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>52</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9854,8 +10036,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>52</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9884,11 +10072,19 @@
         <v>-809219.9333958199</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>52</v>
+      </c>
+      <c r="J279" t="n">
+        <v>52</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +10113,19 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J280" t="n">
+        <v>52</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9950,11 +10154,19 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>52</v>
+      </c>
+      <c r="J281" t="n">
+        <v>52</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9983,11 +10195,19 @@
         <v>-812895.4941958198</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>52</v>
+      </c>
+      <c r="J282" t="n">
+        <v>52</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10016,11 +10236,19 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>52</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10049,11 +10277,19 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>52</v>
+      </c>
+      <c r="J284" t="n">
+        <v>52</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10082,11 +10318,19 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>52</v>
+      </c>
+      <c r="J285" t="n">
+        <v>52</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10115,11 +10359,19 @@
         <v>-813365.1195958199</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>52</v>
+      </c>
+      <c r="J286" t="n">
+        <v>52</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10148,11 +10400,19 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>52</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10181,11 +10441,19 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>52</v>
+      </c>
+      <c r="J288" t="n">
+        <v>52</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10214,11 +10482,19 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>52</v>
+      </c>
+      <c r="J289" t="n">
+        <v>52</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10247,11 +10523,19 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>52</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10280,11 +10564,19 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>52</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10313,11 +10605,19 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>52</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10346,11 +10646,19 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>52</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10379,11 +10687,19 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>52</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10412,11 +10728,19 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J295" t="n">
+        <v>52</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10445,11 +10769,19 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J296" t="n">
+        <v>52</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10478,11 +10810,19 @@
         <v>-707374.7067958199</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J297" t="n">
+        <v>52</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10511,11 +10851,19 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="J298" t="n">
+        <v>52</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10544,11 +10892,19 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J299" t="n">
+        <v>52</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10577,11 +10933,19 @@
         <v>-687170.4118958199</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J300" t="n">
+        <v>52</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10610,11 +10974,19 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J301" t="n">
+        <v>52</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10643,11 +11015,19 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J302" t="n">
+        <v>52</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10676,11 +11056,19 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J303" t="n">
+        <v>52</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10709,11 +11097,19 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J304" t="n">
+        <v>52</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10742,11 +11138,19 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J305" t="n">
+        <v>52</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10775,11 +11179,19 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J306" t="n">
+        <v>52</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10808,11 +11220,19 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J307" t="n">
+        <v>52</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10841,11 +11261,19 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J308" t="n">
+        <v>52</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10874,11 +11302,19 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J309" t="n">
+        <v>52</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10907,11 +11343,19 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J310" t="n">
+        <v>52</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10940,11 +11384,19 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J311" t="n">
+        <v>52</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10973,11 +11425,19 @@
         <v>-674173.6836958199</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J312" t="n">
+        <v>52</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11006,11 +11466,19 @@
         <v>-674173.6836958199</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J313" t="n">
+        <v>52</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11039,11 +11507,19 @@
         <v>-844814.70649582</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J314" t="n">
+        <v>52</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11072,11 +11548,19 @@
         <v>-814012.86079582</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J315" t="n">
+        <v>52</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11105,11 +11589,19 @@
         <v>-814012.86079582</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J316" t="n">
+        <v>52</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +11630,19 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J317" t="n">
+        <v>52</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11171,11 +11671,19 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J318" t="n">
+        <v>52</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11204,11 +11712,19 @@
         <v>-816015.66769582</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J319" t="n">
+        <v>52</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11237,11 +11753,19 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J320" t="n">
+        <v>52</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11270,11 +11794,19 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J321" t="n">
+        <v>52</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11303,11 +11835,19 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J322" t="n">
+        <v>52</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11336,11 +11876,19 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J323" t="n">
+        <v>52</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11369,11 +11917,19 @@
         <v>-821004.85749582</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J324" t="n">
+        <v>52</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11402,11 +11958,19 @@
         <v>-817751.9819958201</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J325" t="n">
+        <v>52</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11435,11 +11999,19 @@
         <v>-817751.9819958201</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J326" t="n">
+        <v>52</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11468,11 +12040,19 @@
         <v>-832560.3523958201</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J327" t="n">
+        <v>52</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11501,11 +12081,19 @@
         <v>-831366.6299958201</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J328" t="n">
+        <v>52</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11534,11 +12122,19 @@
         <v>-827145.6449958201</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J329" t="n">
+        <v>52</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11567,11 +12163,19 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J330" t="n">
+        <v>52</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11600,11 +12204,19 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J331" t="n">
+        <v>52</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11633,11 +12245,19 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J332" t="n">
+        <v>52</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11666,11 +12286,19 @@
         <v>-820702.0700958201</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J333" t="n">
+        <v>52</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11699,11 +12327,19 @@
         <v>-835563.2186958201</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J334" t="n">
+        <v>52</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11732,11 +12368,19 @@
         <v>-835563.2186958201</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J335" t="n">
+        <v>52</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11765,11 +12409,19 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J336" t="n">
+        <v>52</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11798,11 +12450,19 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J337" t="n">
+        <v>52</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11831,11 +12491,19 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J338" t="n">
+        <v>52</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11864,11 +12532,19 @@
         <v>-866086.5038958201</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J339" t="n">
+        <v>52</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11897,11 +12573,19 @@
         <v>-856086.5038958201</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J340" t="n">
+        <v>52</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11930,11 +12614,19 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J341" t="n">
+        <v>52</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11963,11 +12655,19 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J342" t="n">
+        <v>52</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11996,11 +12696,19 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J343" t="n">
+        <v>52</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12029,11 +12737,19 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J344" t="n">
+        <v>52</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12062,11 +12778,19 @@
         <v>-844432.3284958202</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J345" t="n">
+        <v>52</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12095,11 +12819,19 @@
         <v>-844432.3284958202</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J346" t="n">
+        <v>52</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12128,11 +12860,19 @@
         <v>-848681.5296958202</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J347" t="n">
+        <v>52</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12161,11 +12901,19 @@
         <v>-848681.5296958202</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J348" t="n">
+        <v>52</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12194,11 +12942,19 @@
         <v>-848481.5296958202</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J349" t="n">
+        <v>52</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12227,11 +12983,19 @@
         <v>-837485.5119958202</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J350" t="n">
+        <v>52</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12260,11 +13024,19 @@
         <v>-837485.5119958202</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J351" t="n">
+        <v>52</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12293,11 +13065,19 @@
         <v>-889998.6789958202</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J352" t="n">
+        <v>52</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12326,11 +13106,19 @@
         <v>-831078.6031958202</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J353" t="n">
+        <v>52</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +13147,19 @@
         <v>-831078.6031958202</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J354" t="n">
+        <v>52</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12392,11 +13188,19 @@
         <v>-791507.9117958202</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J355" t="n">
+        <v>52</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12425,11 +13229,19 @@
         <v>-791507.9117958202</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>53</v>
+      </c>
+      <c r="J356" t="n">
+        <v>52</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12458,11 +13270,19 @@
         <v>-783959.2553958202</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>53</v>
+      </c>
+      <c r="J357" t="n">
+        <v>52</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12494,8 +13314,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>52</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12527,8 +13353,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>52</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12560,8 +13392,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>52</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12593,8 +13431,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>52</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12626,8 +13470,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>52</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12659,8 +13509,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>52</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12692,8 +13548,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>52</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12725,8 +13587,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>52</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12758,8 +13626,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>52</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12791,8 +13665,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>52</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12824,8 +13704,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>52</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12857,8 +13743,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>52</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12890,8 +13782,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>52</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12923,8 +13821,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>52</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12956,8 +13860,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>52</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12989,8 +13899,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>52</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13022,8 +13938,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>52</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13055,8 +13977,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>52</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13088,8 +14016,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>52</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13118,11 +14052,17 @@
         <v>-672949.4407958206</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>52</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13151,11 +14091,17 @@
         <v>-537354.3299276206</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>52</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13184,11 +14130,17 @@
         <v>-609701.5751276206</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>52</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13217,11 +14169,17 @@
         <v>-609701.5751276206</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>52</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13253,8 +14211,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>52</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13286,14 +14250,20 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>52</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
       <c r="M382" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest ADA.xlsx
+++ b/BackTest/2019-11-18 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>-32130.55760000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>10486.56319999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>51.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -566,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -751,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -862,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -899,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -936,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -973,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1010,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1084,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1158,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1232,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1269,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1306,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1343,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1380,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1417,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1454,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1491,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1528,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1565,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1602,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1676,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1713,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1750,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1824,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1861,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1898,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1935,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1972,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2009,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2046,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2083,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2120,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2157,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2194,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2231,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2268,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2305,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2342,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2379,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2416,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2449,15 +2233,11 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2486,15 +2266,11 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2523,15 +2299,11 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2560,15 +2332,11 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2597,15 +2365,11 @@
         <v>29825.78612245998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2634,15 +2398,11 @@
         <v>28030.44102245999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2671,15 +2431,11 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2708,15 +2464,11 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2745,15 +2497,11 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2782,15 +2530,11 @@
         <v>44801.38242245999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2819,15 +2563,11 @@
         <v>32616.37452245999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2856,15 +2596,11 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2893,15 +2629,11 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2930,15 +2662,11 @@
         <v>49702.20742245999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2967,15 +2695,11 @@
         <v>36053.20462245999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3004,15 +2728,11 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3041,15 +2761,11 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3078,15 +2794,11 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3115,15 +2827,11 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3156,12 +2864,10 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
       <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -3616,7 +3322,7 @@
         <v>-20978.98397754</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -4045,7 +3751,7 @@
         <v>-94609.78237754</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4111,7 +3817,7 @@
         <v>-97039.40497754001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4144,7 +3850,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4177,7 +3883,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4210,7 +3916,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4243,7 +3949,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4276,7 +3982,7 @@
         <v>-86507.05499578001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4309,7 +4015,7 @@
         <v>-80227.54999578001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4342,7 +4048,7 @@
         <v>-57191.76825932</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4375,7 +4081,7 @@
         <v>-66067.48335932</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4408,7 +4114,7 @@
         <v>-66057.38355932001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4441,7 +4147,7 @@
         <v>-66045.16075932</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4474,7 +4180,7 @@
         <v>-88348.64065931999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4507,7 +4213,7 @@
         <v>-80904.14645931999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4540,7 +4246,7 @@
         <v>-82904.14645931999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4573,7 +4279,7 @@
         <v>-82893.13475931999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4606,7 +4312,7 @@
         <v>-97298.46675931998</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4639,7 +4345,7 @@
         <v>-106299.14695932</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4672,7 +4378,7 @@
         <v>-106299.14695932</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4705,7 +4411,7 @@
         <v>-104976.23535932</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4738,7 +4444,7 @@
         <v>-134049.63105932</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4771,7 +4477,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4804,7 +4510,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4837,7 +4543,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4870,7 +4576,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4903,7 +4609,7 @@
         <v>-124776.82195932</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4936,7 +4642,7 @@
         <v>-124764.63505932</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4969,7 +4675,7 @@
         <v>-124764.63505932</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5002,7 +4708,7 @@
         <v>-105184.22645932</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5035,7 +4741,7 @@
         <v>-106101.11675932</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5068,7 +4774,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5101,7 +4807,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5134,7 +4840,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5167,7 +4873,7 @@
         <v>-131179.62455932</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5200,7 +4906,7 @@
         <v>-131179.62455932</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5233,7 +4939,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5266,7 +4972,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5299,7 +5005,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5332,7 +5038,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5365,7 +5071,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5398,7 +5104,7 @@
         <v>-123099.82295932</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5431,7 +5137,7 @@
         <v>-121299.82295932</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5464,7 +5170,7 @@
         <v>-141299.82395932</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5497,7 +5203,7 @@
         <v>-140771.96345932</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5530,7 +5236,7 @@
         <v>-140771.96345932</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5563,7 +5269,7 @@
         <v>-140771.96345932</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5596,7 +5302,7 @@
         <v>-159061.85755932</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5629,7 +5335,7 @@
         <v>-159061.85755932</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5662,7 +5368,7 @@
         <v>-159061.85755932</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5695,7 +5401,7 @@
         <v>-159061.85755932</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5728,7 +5434,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5761,7 +5467,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5794,7 +5500,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5827,7 +5533,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5860,7 +5566,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5893,7 +5599,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5926,7 +5632,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5959,7 +5665,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5992,7 +5698,7 @@
         <v>-156433.05995932</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6025,7 +5731,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6058,7 +5764,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6091,7 +5797,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6124,7 +5830,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6157,7 +5863,7 @@
         <v>-156633.05995932</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6190,7 +5896,7 @@
         <v>-157868.17985932</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6223,7 +5929,7 @@
         <v>-157868.17985932</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6256,7 +5962,7 @@
         <v>-81653.59815931997</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6289,7 +5995,7 @@
         <v>-81653.59815931997</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6322,7 +6028,7 @@
         <v>-81653.59815931997</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6355,7 +6061,7 @@
         <v>-81653.59815931997</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6388,7 +6094,7 @@
         <v>-85612.51305931997</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6421,7 +6127,7 @@
         <v>-85612.51305931997</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6454,7 +6160,7 @@
         <v>-116529.91305932</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6487,7 +6193,7 @@
         <v>-169180.62209113</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6520,7 +6226,7 @@
         <v>-169159.58042447</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6553,7 +6259,7 @@
         <v>-169182.21832447</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6586,7 +6292,7 @@
         <v>-176423.16452447</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6619,7 +6325,7 @@
         <v>-181530.01352447</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6652,7 +6358,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6685,7 +6391,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6718,7 +6424,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6751,7 +6457,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6784,7 +6490,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6817,7 +6523,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6850,7 +6556,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6883,7 +6589,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6916,7 +6622,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6949,7 +6655,7 @@
         <v>-179473.03382447</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6982,7 +6688,7 @@
         <v>-200897.61222447</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7015,7 +6721,7 @@
         <v>-192889.29679582</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7048,7 +6754,7 @@
         <v>-194683.79039582</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7081,7 +6787,7 @@
         <v>-194683.79039582</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7114,7 +6820,7 @@
         <v>-194683.79039582</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7147,7 +6853,7 @@
         <v>-194683.79039582</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7180,7 +6886,7 @@
         <v>-190262.84979582</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7213,7 +6919,7 @@
         <v>-190262.84979582</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7246,7 +6952,7 @@
         <v>-190262.84979582</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8929,14 +8635,10 @@
         <v>-786247.3944958199</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J250" t="n">
-        <v>51.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8969,125 +8671,127 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
         <v>51.7</v>
       </c>
-      <c r="K251" t="inlineStr">
+      <c r="C252" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D252" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="E252" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F252" t="n">
+        <v>10612.3083</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-775635.0861958199</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J252" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="C253" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D253" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="E253" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-775635.0861958199</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J253" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C254" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D254" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E254" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="F254" t="n">
+        <v>52.1295</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-775582.9566958199</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
         <v>51.7</v>
       </c>
-      <c r="C252" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="D252" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="E252" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F252" t="n">
-        <v>10612.3083</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-775635.0861958199</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
+      <c r="J254" t="n">
         <v>51.6</v>
       </c>
-      <c r="J252" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K252" t="inlineStr">
+      <c r="K254" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="C253" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="D253" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="E253" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1020</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-775635.0861958199</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="C254" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="D254" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="E254" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="F254" t="n">
-        <v>52.1295</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-775582.9566958199</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J254" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9122,13 +8826,9 @@
         <v>51.8</v>
       </c>
       <c r="J255" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>51.8</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9163,7 +8863,7 @@
         <v>51.8</v>
       </c>
       <c r="J256" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9204,9 +8904,13 @@
         <v>51.7</v>
       </c>
       <c r="J257" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+        <v>51.8</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9241,13 +8945,9 @@
         <v>51.8</v>
       </c>
       <c r="J258" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>51.8</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9282,7 +8982,7 @@
         <v>51.7</v>
       </c>
       <c r="J259" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9323,9 +9023,13 @@
         <v>51.7</v>
       </c>
       <c r="J260" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
+        <v>51.8</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +9066,7 @@
       <c r="J261" t="n">
         <v>51.7</v>
       </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9442,9 +9142,13 @@
         <v>51.8</v>
       </c>
       <c r="J263" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+        <v>51.7</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9479,13 +9183,9 @@
         <v>51.7</v>
       </c>
       <c r="J264" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>51.7</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9520,7 +9220,7 @@
         <v>51.7</v>
       </c>
       <c r="J265" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9561,9 +9261,13 @@
         <v>51.8</v>
       </c>
       <c r="J266" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+        <v>51.7</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9600,11 +9304,7 @@
       <c r="J267" t="n">
         <v>51.8</v>
       </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9682,7 +9382,11 @@
       <c r="J269" t="n">
         <v>51.8</v>
       </c>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9717,13 +9421,9 @@
         <v>52.1</v>
       </c>
       <c r="J270" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>52.1</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9752,13 +9452,11 @@
         <v>-781941.8325958198</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>51.8</v>
+        <v>52.1</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9799,9 +9497,13 @@
         <v>52</v>
       </c>
       <c r="J272" t="n">
-        <v>52</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
+        <v>52.1</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9838,11 +9540,7 @@
       <c r="J273" t="n">
         <v>52</v>
       </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9912,11 +9610,9 @@
         <v>-751454.7075958198</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
         <v>52</v>
       </c>
@@ -9992,11 +9688,9 @@
         <v>-750663.6502958199</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
         <v>52</v>
       </c>
@@ -10072,11 +9766,9 @@
         <v>-809219.9333958199</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
         <v>52</v>
       </c>
@@ -10113,11 +9805,9 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
         <v>52</v>
       </c>
@@ -10154,11 +9844,9 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
         <v>52</v>
       </c>
@@ -10195,11 +9883,9 @@
         <v>-812895.4941958198</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
         <v>52</v>
       </c>
@@ -10236,11 +9922,9 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
         <v>52</v>
       </c>
@@ -10277,11 +9961,9 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
         <v>52</v>
       </c>
@@ -10318,11 +10000,9 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
         <v>52</v>
       </c>
@@ -10400,11 +10080,9 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
         <v>52</v>
       </c>
@@ -10441,11 +10119,9 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
         <v>52</v>
       </c>
@@ -10482,11 +10158,9 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
         <v>52</v>
       </c>
@@ -10523,11 +10197,9 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
         <v>52</v>
       </c>
@@ -10564,11 +10236,9 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
         <v>52</v>
       </c>
@@ -10605,11 +10275,9 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
         <v>52</v>
       </c>
@@ -10646,11 +10314,9 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
         <v>52</v>
       </c>
@@ -10687,11 +10353,9 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>52.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
         <v>52</v>
       </c>
@@ -10728,11 +10392,9 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>52.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
         <v>52</v>
       </c>
@@ -10769,11 +10431,9 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>52.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
         <v>52</v>
       </c>
@@ -10810,11 +10470,9 @@
         <v>-707374.7067958199</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>52.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
         <v>52</v>
       </c>
@@ -10851,11 +10509,9 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>52.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
         <v>52</v>
       </c>
@@ -10892,11 +10548,9 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>52.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
         <v>52</v>
       </c>
@@ -10933,11 +10587,9 @@
         <v>-687170.4118958199</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>52.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
         <v>52</v>
       </c>
@@ -10974,11 +10626,9 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>52.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
         <v>52</v>
       </c>
@@ -11015,11 +10665,9 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>52.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
         <v>52</v>
       </c>
@@ -11056,11 +10704,9 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>52.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
         <v>52</v>
       </c>
@@ -11097,11 +10743,9 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>52.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
         <v>52</v>
       </c>
@@ -11138,21 +10782,19 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>52.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
         <v>52</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L305" t="n">
-        <v>1</v>
+        <v>1.006538461538462</v>
       </c>
       <c r="M305" t="inlineStr"/>
     </row>
@@ -11179,19 +10821,11 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J306" t="n">
-        <v>52</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11220,19 +10854,11 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J307" t="n">
-        <v>52</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11261,19 +10887,11 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J308" t="n">
-        <v>52</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11302,19 +10920,11 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J309" t="n">
-        <v>52</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11343,19 +10953,11 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J310" t="n">
-        <v>52</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11384,19 +10986,11 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J311" t="n">
-        <v>52</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11425,19 +11019,11 @@
         <v>-674173.6836958199</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J312" t="n">
-        <v>52</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11466,19 +11052,11 @@
         <v>-674173.6836958199</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J313" t="n">
-        <v>52</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11507,19 +11085,11 @@
         <v>-844814.70649582</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J314" t="n">
-        <v>52</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11548,19 +11118,11 @@
         <v>-814012.86079582</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J315" t="n">
-        <v>52</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11589,19 +11151,11 @@
         <v>-814012.86079582</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J316" t="n">
-        <v>52</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11630,19 +11184,11 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J317" t="n">
-        <v>52</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11671,19 +11217,11 @@
         <v>-814122.36019582</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J318" t="n">
-        <v>52</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11712,19 +11250,11 @@
         <v>-816015.66769582</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J319" t="n">
-        <v>52</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11753,19 +11283,11 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J320" t="n">
-        <v>52</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11794,19 +11316,11 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J321" t="n">
-        <v>52</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11835,19 +11349,11 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J322" t="n">
-        <v>52</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11876,19 +11382,11 @@
         <v>-816004.85749582</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J323" t="n">
-        <v>52</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11917,19 +11415,11 @@
         <v>-821004.85749582</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J324" t="n">
-        <v>52</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11958,19 +11448,11 @@
         <v>-817751.9819958201</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="J325" t="n">
-        <v>52</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11999,19 +11481,11 @@
         <v>-817751.9819958201</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J326" t="n">
-        <v>52</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12040,19 +11514,11 @@
         <v>-832560.3523958201</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J327" t="n">
-        <v>52</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12081,19 +11547,11 @@
         <v>-831366.6299958201</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="J328" t="n">
-        <v>52</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12122,19 +11580,11 @@
         <v>-827145.6449958201</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J329" t="n">
-        <v>52</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12163,19 +11613,11 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J330" t="n">
-        <v>52</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12204,19 +11646,11 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J331" t="n">
-        <v>52</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12245,19 +11679,11 @@
         <v>-821582.1859958201</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J332" t="n">
-        <v>52</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12286,19 +11712,11 @@
         <v>-820702.0700958201</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J333" t="n">
-        <v>52</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12327,19 +11745,11 @@
         <v>-835563.2186958201</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J334" t="n">
-        <v>52</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12368,19 +11778,11 @@
         <v>-835563.2186958201</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J335" t="n">
-        <v>52</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12409,19 +11811,11 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J336" t="n">
-        <v>52</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12450,19 +11844,11 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J337" t="n">
-        <v>52</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12491,19 +11877,11 @@
         <v>-854563.2186958201</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J338" t="n">
-        <v>52</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12532,19 +11910,11 @@
         <v>-866086.5038958201</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J339" t="n">
-        <v>52</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12573,19 +11943,11 @@
         <v>-856086.5038958201</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="J340" t="n">
-        <v>52</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12614,19 +11976,11 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="J341" t="n">
-        <v>52</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12655,19 +12009,11 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J342" t="n">
-        <v>52</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12696,19 +12042,11 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J343" t="n">
-        <v>52</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12737,19 +12075,11 @@
         <v>-856216.1913958201</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J344" t="n">
-        <v>52</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12778,19 +12108,11 @@
         <v>-844432.3284958202</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J345" t="n">
-        <v>52</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12819,19 +12141,11 @@
         <v>-844432.3284958202</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J346" t="n">
-        <v>52</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12860,19 +12174,11 @@
         <v>-848681.5296958202</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J347" t="n">
-        <v>52</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12901,19 +12207,11 @@
         <v>-848681.5296958202</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="J348" t="n">
-        <v>52</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12942,19 +12240,11 @@
         <v>-848481.5296958202</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="J349" t="n">
-        <v>52</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12983,19 +12273,11 @@
         <v>-837485.5119958202</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J350" t="n">
-        <v>52</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13024,19 +12306,11 @@
         <v>-837485.5119958202</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J351" t="n">
-        <v>52</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13065,19 +12339,11 @@
         <v>-889998.6789958202</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J352" t="n">
-        <v>52</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13106,19 +12372,11 @@
         <v>-831078.6031958202</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J353" t="n">
-        <v>52</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13147,19 +12405,11 @@
         <v>-831078.6031958202</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J354" t="n">
-        <v>52</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13188,19 +12438,11 @@
         <v>-791507.9117958202</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J355" t="n">
-        <v>52</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13229,19 +12471,11 @@
         <v>-791507.9117958202</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>53</v>
-      </c>
-      <c r="J356" t="n">
-        <v>52</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13270,19 +12504,11 @@
         <v>-783959.2553958202</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>53</v>
-      </c>
-      <c r="J357" t="n">
-        <v>52</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13314,14 +12540,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>52</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13353,14 +12573,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>52</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13392,14 +12606,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>52</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13431,14 +12639,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>52</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13470,14 +12672,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>52</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13509,14 +12705,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>52</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13548,14 +12738,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>52</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13587,14 +12771,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>52</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13626,14 +12804,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>52</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13665,14 +12837,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>52</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13704,14 +12870,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>52</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13743,14 +12903,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>52</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13782,14 +12936,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>52</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13821,14 +12969,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>52</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13860,14 +13002,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>52</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13899,14 +13035,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>52</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13938,14 +13068,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>52</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13977,14 +13101,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>52</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14016,14 +13134,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>52</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14055,14 +13167,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>52</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14094,14 +13200,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>52</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14133,14 +13233,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>52</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14172,14 +13266,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>52</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14211,14 +13299,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>52</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14250,20 +13332,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>52</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
       <c r="M382" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-18 BackTest ADA.xlsx
+++ b/BackTest/2019-11-18 BackTest ADA.xlsx
@@ -2233,7 +2233,7 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>49823.19782245998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>50201.26882245998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>29825.78612245998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>28030.44102245999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>93179.92732245999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>44801.38242245999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>32616.37452245999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>32656.14692245999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>49702.20742245999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>36053.20462245999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>36864.99252245999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>11902.82452246</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>6094.587122459998</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-47738.50457754</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-60800.97877754</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-65989.96497754</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-64555.44557754001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-30624.06457754</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-20978.98397754</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-17744.24927754</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-17818.53027754</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-65031.43277754</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-98117.67667754</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-102978.40607754</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-97558.46347754</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-97558.46347754</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-97345.45367754</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-90914.41097754</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-90902.29917754</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-99902.29917754</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-94609.78237754</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-97018.34407754001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-97039.40497754001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-99039.40497754001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-73508.20319578001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-86507.05499578001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-80227.54999578001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-57191.76825932</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-66067.48335932</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-88348.64065931999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-82893.13475931999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-97298.46675931998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-106299.14695932</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-106299.14695932</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-104976.23535932</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-134049.63105932</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-123792.99575932</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-105184.22645932</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-106090.11595932</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-131179.62455932</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -8701,14 +8701,10 @@
         <v>-775635.0861958199</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="J252" t="n">
-        <v>51.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
@@ -8738,216 +8734,188 @@
         <v>-775635.0861958199</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C254" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D254" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E254" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="F254" t="n">
+        <v>52.1295</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-775582.9566958199</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C255" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D255" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E255" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="F255" t="n">
+        <v>4140.1011</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-775582.9566958199</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
         <v>51.7</v>
       </c>
-      <c r="J253" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="K253" t="inlineStr">
+      <c r="C256" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D256" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="E256" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F256" t="n">
+        <v>18568.4396</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-794151.3962958199</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C257" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D257" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E257" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="F257" t="n">
+        <v>6740</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-787411.3962958199</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J257" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="C258" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D258" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="E258" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-789411.3962958199</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J258" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="C254" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="D254" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="E254" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="F254" t="n">
-        <v>52.1295</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-775582.9566958199</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J254" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="C255" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="D255" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="E255" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="F255" t="n">
-        <v>4140.1011</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-775582.9566958199</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J255" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="C256" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="D256" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="E256" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F256" t="n">
-        <v>18568.4396</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-794151.3962958199</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J256" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="C257" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="D257" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="E257" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="F257" t="n">
-        <v>6740</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-787411.3962958199</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J257" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="C258" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="D258" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="E258" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-789411.3962958199</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J258" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8982,7 +8950,7 @@
         <v>51.7</v>
       </c>
       <c r="J259" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9023,50 +8991,50 @@
         <v>51.7</v>
       </c>
       <c r="J260" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K260" t="inlineStr">
+        <v>51.7</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="C261" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D261" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="E261" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F261" t="n">
+        <v>22616.9</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-789411.3962958199</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J261" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="C261" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="D261" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="E261" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F261" t="n">
-        <v>22616.9</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-789411.3962958199</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J261" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9142,50 +9110,50 @@
         <v>51.8</v>
       </c>
       <c r="J263" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
         <v>51.7</v>
       </c>
-      <c r="K263" t="inlineStr">
+      <c r="C264" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D264" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="E264" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="F264" t="n">
+        <v>58713.8516</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-788354.7835958198</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="J264" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="C264" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="D264" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="E264" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="F264" t="n">
-        <v>58713.8516</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-788354.7835958198</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J264" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9220,7 +9188,7 @@
         <v>51.7</v>
       </c>
       <c r="J265" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9261,50 +9229,50 @@
         <v>51.8</v>
       </c>
       <c r="J266" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="K266" t="inlineStr">
+        <v>51.8</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C267" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D267" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E267" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="F267" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-779109.1936958198</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J267" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="C267" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="D267" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="E267" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="F267" t="n">
-        <v>280.3</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-779109.1936958198</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J267" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9382,48 +9350,48 @@
       <c r="J269" t="n">
         <v>51.8</v>
       </c>
-      <c r="K269" t="inlineStr">
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>52</v>
+      </c>
+      <c r="C270" t="n">
+        <v>52</v>
+      </c>
+      <c r="D270" t="n">
+        <v>52</v>
+      </c>
+      <c r="E270" t="n">
+        <v>52</v>
+      </c>
+      <c r="F270" t="n">
+        <v>4027.2607</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-781941.8325958198</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="J270" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>52</v>
-      </c>
-      <c r="C270" t="n">
-        <v>52</v>
-      </c>
-      <c r="D270" t="n">
-        <v>52</v>
-      </c>
-      <c r="E270" t="n">
-        <v>52</v>
-      </c>
-      <c r="F270" t="n">
-        <v>4027.2607</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-781941.8325958198</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="J270" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9452,11 +9420,13 @@
         <v>-781941.8325958198</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>52</v>
+      </c>
       <c r="J271" t="n">
-        <v>52.1</v>
+        <v>51.8</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9497,50 +9467,50 @@
         <v>52</v>
       </c>
       <c r="J272" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
+        <v>52</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>52</v>
+      </c>
+      <c r="C273" t="n">
+        <v>52</v>
+      </c>
+      <c r="D273" t="n">
+        <v>52</v>
+      </c>
+      <c r="E273" t="n">
+        <v>52</v>
+      </c>
+      <c r="F273" t="n">
+        <v>77061.6612</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-781941.8325958198</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>52</v>
+      </c>
+      <c r="J273" t="n">
+        <v>52</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>52</v>
-      </c>
-      <c r="C273" t="n">
-        <v>52</v>
-      </c>
-      <c r="D273" t="n">
-        <v>52</v>
-      </c>
-      <c r="E273" t="n">
-        <v>52</v>
-      </c>
-      <c r="F273" t="n">
-        <v>77061.6612</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-781941.8325958198</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>52</v>
-      </c>
-      <c r="J273" t="n">
-        <v>52</v>
-      </c>
-      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9610,9 +9580,11 @@
         <v>-751454.7075958198</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J275" t="n">
         <v>52</v>
       </c>
@@ -9649,9 +9621,11 @@
         <v>-751454.7075958198</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J276" t="n">
         <v>52</v>
       </c>
@@ -9688,9 +9662,11 @@
         <v>-750663.6502958199</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J277" t="n">
         <v>52</v>
       </c>
@@ -9727,9 +9703,11 @@
         <v>-810906.8849958199</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J278" t="n">
         <v>52</v>
       </c>
@@ -9766,9 +9744,11 @@
         <v>-809219.9333958199</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>52</v>
+      </c>
       <c r="J279" t="n">
         <v>52</v>
       </c>
@@ -9805,9 +9785,11 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J280" t="n">
         <v>52</v>
       </c>
@@ -9844,9 +9826,11 @@
         <v>-815149.5269958199</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>52</v>
+      </c>
       <c r="J281" t="n">
         <v>52</v>
       </c>
@@ -9883,9 +9867,11 @@
         <v>-812895.4941958198</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>52</v>
+      </c>
       <c r="J282" t="n">
         <v>52</v>
       </c>
@@ -9922,9 +9908,11 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J283" t="n">
         <v>52</v>
       </c>
@@ -9961,9 +9949,11 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>52</v>
+      </c>
       <c r="J284" t="n">
         <v>52</v>
       </c>
@@ -10000,9 +9990,11 @@
         <v>-813465.1195958199</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>52</v>
+      </c>
       <c r="J285" t="n">
         <v>52</v>
       </c>
@@ -10080,9 +10072,11 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J287" t="n">
         <v>52</v>
       </c>
@@ -10119,9 +10113,11 @@
         <v>-814865.1195958199</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>52</v>
+      </c>
       <c r="J288" t="n">
         <v>52</v>
       </c>
@@ -10158,9 +10154,11 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>52</v>
+      </c>
       <c r="J289" t="n">
         <v>52</v>
       </c>
@@ -10197,9 +10195,11 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J290" t="n">
         <v>52</v>
       </c>
@@ -10236,9 +10236,11 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J291" t="n">
         <v>52</v>
       </c>
@@ -10275,9 +10277,11 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J292" t="n">
         <v>52</v>
       </c>
@@ -10314,9 +10318,11 @@
         <v>-814595.8505958199</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J293" t="n">
         <v>52</v>
       </c>
@@ -10353,9 +10359,11 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>52.1</v>
+      </c>
       <c r="J294" t="n">
         <v>52</v>
       </c>
@@ -10392,9 +10400,11 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>52.3</v>
+      </c>
       <c r="J295" t="n">
         <v>52</v>
       </c>
@@ -10431,9 +10441,11 @@
         <v>-699872.8505958199</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>52.3</v>
+      </c>
       <c r="J296" t="n">
         <v>52</v>
       </c>
@@ -10470,9 +10482,11 @@
         <v>-707374.7067958199</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>52.3</v>
+      </c>
       <c r="J297" t="n">
         <v>52</v>
       </c>
@@ -10509,9 +10523,11 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J298" t="n">
         <v>52</v>
       </c>
@@ -10548,9 +10564,11 @@
         <v>-707170.4118958199</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>52.3</v>
+      </c>
       <c r="J299" t="n">
         <v>52</v>
       </c>
@@ -10587,9 +10605,11 @@
         <v>-687170.4118958199</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>52.3</v>
+      </c>
       <c r="J300" t="n">
         <v>52</v>
       </c>
@@ -10626,9 +10646,11 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>52.5</v>
+      </c>
       <c r="J301" t="n">
         <v>52</v>
       </c>
@@ -10665,9 +10687,11 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>52.4</v>
+      </c>
       <c r="J302" t="n">
         <v>52</v>
       </c>
@@ -10704,9 +10728,11 @@
         <v>-694101.1366958199</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>52.4</v>
+      </c>
       <c r="J303" t="n">
         <v>52</v>
       </c>
@@ -10743,9 +10769,11 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>52.4</v>
+      </c>
       <c r="J304" t="n">
         <v>52</v>
       </c>
@@ -10782,2461 +10810,3013 @@
         <v>-674222.5608958199</v>
       </c>
       <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J305" t="n">
+        <v>52</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C306" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D306" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E306" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1750.2339</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-674222.5608958199</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J306" t="n">
+        <v>52</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C307" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D307" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E307" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F307" t="n">
+        <v>21015.2479</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-674222.5608958199</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J307" t="n">
+        <v>52</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C308" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D308" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E308" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F308" t="n">
+        <v>48013.6535</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-674222.5608958199</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J308" t="n">
+        <v>52</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C309" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E309" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F309" t="n">
+        <v>38681.61798821</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-674222.5608958199</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J309" t="n">
+        <v>52</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C310" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D310" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E310" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F310" t="n">
+        <v>29.1131</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-674222.5608958199</v>
+      </c>
+      <c r="H310" t="n">
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J310" t="n">
+        <v>52</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C311" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D311" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E311" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F311" t="n">
+        <v>3356.8612</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-674222.5608958199</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J311" t="n">
+        <v>52</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C312" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D312" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E312" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F312" t="n">
+        <v>48.8772</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-674173.6836958199</v>
+      </c>
+      <c r="H312" t="n">
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J312" t="n">
+        <v>52</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C313" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D313" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E313" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F313" t="n">
+        <v>5203.3598</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-674173.6836958199</v>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J313" t="n">
+        <v>52</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C314" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D314" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E314" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>170641.0228</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-844814.70649582</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J314" t="n">
+        <v>52</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C315" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="D315" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E315" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F315" t="n">
+        <v>30801.8457</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-814012.86079582</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J315" t="n">
+        <v>52</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C316" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="D316" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E316" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1086.1495</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-814012.86079582</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J316" t="n">
+        <v>52</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C317" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D317" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E317" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F317" t="n">
+        <v>109.4994</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-814122.36019582</v>
+      </c>
+      <c r="H317" t="n">
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J317" t="n">
+        <v>52</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C318" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D318" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E318" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F318" t="n">
+        <v>37.95066413</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-814122.36019582</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J318" t="n">
+        <v>52</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C319" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D319" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E319" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1893.3075</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-816015.66769582</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J319" t="n">
+        <v>52</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C320" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D320" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E320" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F320" t="n">
+        <v>10.8102</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-816004.85749582</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J320" t="n">
+        <v>52</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C321" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D321" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E321" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-816004.85749582</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J321" t="n">
+        <v>52</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C322" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D322" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E322" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F322" t="n">
+        <v>10</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-816004.85749582</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J322" t="n">
+        <v>52</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C323" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D323" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E323" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2854.803</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-816004.85749582</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J323" t="n">
+        <v>52</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="C324" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D324" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="E324" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="F324" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-821004.85749582</v>
+      </c>
+      <c r="H324" t="n">
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J324" t="n">
+        <v>52</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C325" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D325" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E325" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F325" t="n">
+        <v>3252.8755</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-817751.9819958201</v>
+      </c>
+      <c r="H325" t="n">
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J325" t="n">
+        <v>52</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C326" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D326" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E326" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F326" t="n">
+        <v>5736.1377</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-817751.9819958201</v>
+      </c>
+      <c r="H326" t="n">
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J326" t="n">
+        <v>52</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="C327" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D327" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="E327" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="F327" t="n">
+        <v>14808.3704</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-832560.3523958201</v>
+      </c>
+      <c r="H327" t="n">
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J327" t="n">
+        <v>52</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C328" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D328" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E328" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1193.7224</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-831366.6299958201</v>
+      </c>
+      <c r="H328" t="n">
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J328" t="n">
+        <v>52</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C329" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D329" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E329" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F329" t="n">
+        <v>4220.985</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-827145.6449958201</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J329" t="n">
+        <v>52</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C330" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="D330" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E330" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F330" t="n">
+        <v>5563.459</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-821582.1859958201</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J330" t="n">
+        <v>52</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C331" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="D331" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E331" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F331" t="n">
+        <v>7370.4337</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-821582.1859958201</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>52</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C332" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="D332" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E332" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F332" t="n">
+        <v>10229.3592</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-821582.1859958201</v>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J332" t="n">
+        <v>52</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C333" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D333" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="E333" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F333" t="n">
+        <v>880.1159</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-820702.0700958201</v>
+      </c>
+      <c r="H333" t="n">
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J333" t="n">
+        <v>52</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C334" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="D334" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E334" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F334" t="n">
+        <v>14861.1486</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-835563.2186958201</v>
+      </c>
+      <c r="H334" t="n">
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J334" t="n">
+        <v>52</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C335" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="D335" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E335" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F335" t="n">
+        <v>93.999</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-835563.2186958201</v>
+      </c>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J335" t="n">
+        <v>52</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C336" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D336" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E336" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F336" t="n">
+        <v>19000</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-854563.2186958201</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J336" t="n">
+        <v>52</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C337" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D337" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E337" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1336.7999</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-854563.2186958201</v>
+      </c>
+      <c r="H337" t="n">
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J337" t="n">
+        <v>52</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C338" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D338" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E338" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F338" t="n">
+        <v>1307.8781</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-854563.2186958201</v>
+      </c>
+      <c r="H338" t="n">
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J338" t="n">
+        <v>52</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C339" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D339" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E339" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="F339" t="n">
+        <v>11523.2852</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-866086.5038958201</v>
+      </c>
+      <c r="H339" t="n">
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J339" t="n">
+        <v>52</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C340" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="D340" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E340" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F340" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-856086.5038958201</v>
+      </c>
+      <c r="H340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="J340" t="n">
+        <v>52</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C341" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D341" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E341" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F341" t="n">
+        <v>129.6875</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-856216.1913958201</v>
+      </c>
+      <c r="H341" t="n">
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="J341" t="n">
+        <v>52</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C342" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D342" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E342" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F342" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-856216.1913958201</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J342" t="n">
+        <v>52</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C343" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D343" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E343" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F343" t="n">
+        <v>5234.0532</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-856216.1913958201</v>
+      </c>
+      <c r="H343" t="n">
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J343" t="n">
+        <v>52</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C344" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D344" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E344" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F344" t="n">
+        <v>772.4429</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-856216.1913958201</v>
+      </c>
+      <c r="H344" t="n">
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J344" t="n">
+        <v>52</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="C345" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D345" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E345" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F345" t="n">
+        <v>11783.8629</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-844432.3284958202</v>
+      </c>
+      <c r="H345" t="n">
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="J345" t="n">
+        <v>52</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C346" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D346" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E346" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1164</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-844432.3284958202</v>
+      </c>
+      <c r="H346" t="n">
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J346" t="n">
+        <v>52</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="C347" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="D347" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="E347" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="F347" t="n">
+        <v>4249.2012</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-848681.5296958202</v>
+      </c>
+      <c r="H347" t="n">
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J347" t="n">
+        <v>52</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="C348" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="D348" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="E348" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="F348" t="n">
+        <v>400</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-848681.5296958202</v>
+      </c>
+      <c r="H348" t="n">
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J348" t="n">
+        <v>52</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C349" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D349" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E349" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F349" t="n">
+        <v>200</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-848481.5296958202</v>
+      </c>
+      <c r="H349" t="n">
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J349" t="n">
+        <v>52</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C350" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D350" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="E350" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F350" t="n">
+        <v>10996.0177</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-837485.5119958202</v>
+      </c>
+      <c r="H350" t="n">
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="J350" t="n">
+        <v>52</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C351" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D351" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="E351" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F351" t="n">
+        <v>67675.019</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-837485.5119958202</v>
+      </c>
+      <c r="H351" t="n">
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J351" t="n">
+        <v>52</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C352" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="D352" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="E352" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F352" t="n">
+        <v>52513.167</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-889998.6789958202</v>
+      </c>
+      <c r="H352" t="n">
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J352" t="n">
+        <v>52</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C353" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D353" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="E353" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F353" t="n">
+        <v>58920.0758</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-831078.6031958202</v>
+      </c>
+      <c r="H353" t="n">
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="J353" t="n">
+        <v>52</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C354" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D354" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="E354" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F354" t="n">
+        <v>58518.7487</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-831078.6031958202</v>
+      </c>
+      <c r="H354" t="n">
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J354" t="n">
+        <v>52</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>53</v>
+      </c>
+      <c r="C355" t="n">
+        <v>53</v>
+      </c>
+      <c r="D355" t="n">
+        <v>53</v>
+      </c>
+      <c r="E355" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F355" t="n">
+        <v>39570.6914</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-791507.9117958202</v>
+      </c>
+      <c r="H355" t="n">
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J355" t="n">
+        <v>52</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>53</v>
+      </c>
+      <c r="C356" t="n">
+        <v>53</v>
+      </c>
+      <c r="D356" t="n">
+        <v>53</v>
+      </c>
+      <c r="E356" t="n">
+        <v>53</v>
+      </c>
+      <c r="F356" t="n">
+        <v>59636.4125</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-791507.9117958202</v>
+      </c>
+      <c r="H356" t="n">
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>53</v>
+      </c>
+      <c r="J356" t="n">
+        <v>52</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>53</v>
+      </c>
+      <c r="C357" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="D357" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E357" t="n">
+        <v>53</v>
+      </c>
+      <c r="F357" t="n">
+        <v>7548.6564</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-783959.2553958202</v>
+      </c>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>53</v>
+      </c>
+      <c r="J357" t="n">
+        <v>52</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C358" t="n">
+        <v>53</v>
+      </c>
+      <c r="D358" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E358" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F358" t="n">
+        <v>5889.9146</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-789849.1699958203</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>52</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C359" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="D359" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E359" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F359" t="n">
+        <v>102618.597</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-687230.5729958203</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>52</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="C360" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E360" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F360" t="n">
+        <v>51278.1173</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-738508.6902958204</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>52</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="D361" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E361" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F361" t="n">
+        <v>8726.481900000001</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-738508.6902958204</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>52</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C362" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="D362" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E362" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F362" t="n">
+        <v>2164.7354</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-738508.6902958204</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>52</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C363" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="D363" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E363" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F363" t="n">
+        <v>2023.2</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-736485.4902958204</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>52</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C364" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="D364" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E364" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F364" t="n">
+        <v>17682.9289</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-736485.4902958204</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>52</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="C365" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="D365" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="E365" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="F365" t="n">
+        <v>53450.704</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-683034.7862958204</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>52</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="C366" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="D366" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="E366" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F366" t="n">
+        <v>29227.09193245</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-683034.7862958204</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>52</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="C367" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D367" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E367" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F367" t="n">
+        <v>266991.4234</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-950026.2096958205</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>52</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C368" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D368" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="E368" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="F368" t="n">
+        <v>122514.3068</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-950026.2096958205</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>52</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="C369" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="D369" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E369" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F369" t="n">
+        <v>599.8200000000001</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-949426.3896958205</v>
+      </c>
+      <c r="H369" t="n">
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="J369" t="n">
+        <v>52</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="C370" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="D370" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E370" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="F370" t="n">
+        <v>50033.8652</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-899392.5244958205</v>
+      </c>
+      <c r="H370" t="n">
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="J370" t="n">
+        <v>52</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C371" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D371" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E371" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="F371" t="n">
+        <v>237713.3335</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-661679.1909958206</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>52</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C372" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="D372" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="E372" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="F372" t="n">
+        <v>8243.4444</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-653435.7465958205</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>52</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C373" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D373" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E373" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="F373" t="n">
+        <v>45159.0836</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-698594.8301958205</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>52</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="C374" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D374" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E374" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="F374" t="n">
+        <v>301.3261</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-698594.8301958205</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>52</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="C375" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="D375" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="E375" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="F375" t="n">
+        <v>25645.3894</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-672949.4407958206</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>52</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="C376" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="D376" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="E376" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="F376" t="n">
+        <v>78672.3659</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-672949.4407958206</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>52</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="C377" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="D377" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="E377" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="F377" t="n">
+        <v>203478.4774</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-672949.4407958206</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>52</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="C378" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="E378" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="F378" t="n">
+        <v>135595.1108682</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-537354.3299276206</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>52</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="C379" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="D379" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="E379" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="F379" t="n">
+        <v>72347.2452</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-609701.5751276206</v>
+      </c>
+      <c r="H379" t="n">
         <v>2</v>
       </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>52</v>
-      </c>
-      <c r="K305" t="inlineStr">
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>52</v>
+      </c>
+      <c r="K379" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L305" t="n">
-        <v>1.006538461538462</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C306" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D306" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E306" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F306" t="n">
-        <v>1750.2339</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-674222.5608958199</v>
-      </c>
-      <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C307" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D307" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E307" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F307" t="n">
-        <v>21015.2479</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-674222.5608958199</v>
-      </c>
-      <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C308" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D308" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E308" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F308" t="n">
-        <v>48013.6535</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-674222.5608958199</v>
-      </c>
-      <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C309" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D309" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E309" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F309" t="n">
-        <v>38681.61798821</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-674222.5608958199</v>
-      </c>
-      <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C310" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D310" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E310" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F310" t="n">
-        <v>29.1131</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-674222.5608958199</v>
-      </c>
-      <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="C311" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D311" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E311" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F311" t="n">
-        <v>3356.8612</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-674222.5608958199</v>
-      </c>
-      <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C312" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D312" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E312" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F312" t="n">
-        <v>48.8772</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-674173.6836958199</v>
-      </c>
-      <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C313" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D313" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E313" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F313" t="n">
-        <v>5203.3598</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-674173.6836958199</v>
-      </c>
-      <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C314" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D314" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E314" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F314" t="n">
-        <v>170641.0228</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-844814.70649582</v>
-      </c>
-      <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="C315" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="D315" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E315" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="F315" t="n">
-        <v>30801.8457</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-814012.86079582</v>
-      </c>
-      <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="C316" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="D316" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E316" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="F316" t="n">
-        <v>1086.1495</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-814012.86079582</v>
-      </c>
-      <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C317" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D317" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E317" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F317" t="n">
-        <v>109.4994</v>
-      </c>
-      <c r="G317" t="n">
-        <v>-814122.36019582</v>
-      </c>
-      <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C318" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D318" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E318" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F318" t="n">
-        <v>37.95066413</v>
-      </c>
-      <c r="G318" t="n">
-        <v>-814122.36019582</v>
-      </c>
-      <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C319" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D319" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E319" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F319" t="n">
-        <v>1893.3075</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-816015.66769582</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C320" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D320" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E320" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F320" t="n">
-        <v>10.8102</v>
-      </c>
-      <c r="G320" t="n">
-        <v>-816004.85749582</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C321" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D321" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E321" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F321" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-816004.85749582</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C322" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D322" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E322" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F322" t="n">
-        <v>10</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-816004.85749582</v>
-      </c>
-      <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C323" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D323" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E323" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F323" t="n">
-        <v>2854.803</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-816004.85749582</v>
-      </c>
-      <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="C324" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="D324" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="E324" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="F324" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-821004.85749582</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="C325" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D325" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="E325" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F325" t="n">
-        <v>3252.8755</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-817751.9819958201</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="C326" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D326" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="E326" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F326" t="n">
-        <v>5736.1377</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-817751.9819958201</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="C327" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="D327" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="E327" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="F327" t="n">
-        <v>14808.3704</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-832560.3523958201</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="C328" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D328" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="E328" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1193.7224</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-831366.6299958201</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C329" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D329" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E329" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F329" t="n">
-        <v>4220.985</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-827145.6449958201</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="C330" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="D330" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E330" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="F330" t="n">
-        <v>5563.459</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-821582.1859958201</v>
-      </c>
-      <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="C331" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="D331" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E331" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="F331" t="n">
-        <v>7370.4337</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-821582.1859958201</v>
-      </c>
-      <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="C332" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="D332" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E332" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="F332" t="n">
-        <v>10229.3592</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-821582.1859958201</v>
-      </c>
-      <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="C333" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D333" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="E333" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F333" t="n">
-        <v>880.1159</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-820702.0700958201</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="C334" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="D334" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E334" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="F334" t="n">
-        <v>14861.1486</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-835563.2186958201</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="C335" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="D335" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="E335" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="F335" t="n">
-        <v>93.999</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-835563.2186958201</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C336" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D336" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E336" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F336" t="n">
-        <v>19000</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-854563.2186958201</v>
-      </c>
-      <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C337" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D337" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E337" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F337" t="n">
-        <v>1336.7999</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-854563.2186958201</v>
-      </c>
-      <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C338" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D338" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E338" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F338" t="n">
-        <v>1307.8781</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-854563.2186958201</v>
-      </c>
-      <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C339" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="D339" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E339" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="F339" t="n">
-        <v>11523.2852</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-866086.5038958201</v>
-      </c>
-      <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C340" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="D340" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="E340" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F340" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-856086.5038958201</v>
-      </c>
-      <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="C341" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D341" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="E341" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F341" t="n">
-        <v>129.6875</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-856216.1913958201</v>
-      </c>
-      <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="C342" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D342" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="E342" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F342" t="n">
-        <v>11000</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-856216.1913958201</v>
-      </c>
-      <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C343" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D343" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E343" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F343" t="n">
-        <v>5234.0532</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-856216.1913958201</v>
-      </c>
-      <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="C344" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D344" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="E344" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F344" t="n">
-        <v>772.4429</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-856216.1913958201</v>
-      </c>
-      <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="C345" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D345" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E345" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="F345" t="n">
-        <v>11783.8629</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-844432.3284958202</v>
-      </c>
-      <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C346" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D346" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E346" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F346" t="n">
-        <v>1164</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-844432.3284958202</v>
-      </c>
-      <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="C347" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="D347" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="E347" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="F347" t="n">
-        <v>4249.2012</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-848681.5296958202</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="C348" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="D348" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="E348" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="F348" t="n">
-        <v>400</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-848681.5296958202</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="C349" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="D349" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="E349" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F349" t="n">
-        <v>200</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-848481.5296958202</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="C350" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D350" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="E350" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="F350" t="n">
-        <v>10996.0177</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-837485.5119958202</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="C351" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D351" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="E351" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F351" t="n">
-        <v>67675.019</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-837485.5119958202</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="C352" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="D352" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="E352" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="F352" t="n">
-        <v>52513.167</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-889998.6789958202</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="C353" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D353" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="E353" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F353" t="n">
-        <v>58920.0758</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-831078.6031958202</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="C354" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D354" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="E354" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F354" t="n">
-        <v>58518.7487</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-831078.6031958202</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>53</v>
-      </c>
-      <c r="C355" t="n">
-        <v>53</v>
-      </c>
-      <c r="D355" t="n">
-        <v>53</v>
-      </c>
-      <c r="E355" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F355" t="n">
-        <v>39570.6914</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-791507.9117958202</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>53</v>
-      </c>
-      <c r="C356" t="n">
-        <v>53</v>
-      </c>
-      <c r="D356" t="n">
-        <v>53</v>
-      </c>
-      <c r="E356" t="n">
-        <v>53</v>
-      </c>
-      <c r="F356" t="n">
-        <v>59636.4125</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-791507.9117958202</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>53</v>
-      </c>
-      <c r="C357" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="D357" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="E357" t="n">
-        <v>53</v>
-      </c>
-      <c r="F357" t="n">
-        <v>7548.6564</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-783959.2553958202</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="C358" t="n">
-        <v>53</v>
-      </c>
-      <c r="D358" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="E358" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F358" t="n">
-        <v>5889.9146</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-789849.1699958203</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="C359" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="D359" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="E359" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F359" t="n">
-        <v>102618.597</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-687230.5729958203</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="C360" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="D360" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="E360" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F360" t="n">
-        <v>51278.1173</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-738508.6902958204</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="C361" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="D361" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="E361" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F361" t="n">
-        <v>8726.481900000001</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-738508.6902958204</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="C362" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="D362" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="E362" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F362" t="n">
-        <v>2164.7354</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-738508.6902958204</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="C363" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="D363" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="E363" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F363" t="n">
-        <v>2023.2</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-736485.4902958204</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="C364" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="D364" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="E364" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F364" t="n">
-        <v>17682.9289</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-736485.4902958204</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="C365" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="D365" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="E365" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="F365" t="n">
-        <v>53450.704</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-683034.7862958204</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="C366" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="D366" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="E366" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F366" t="n">
-        <v>29227.09193245</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-683034.7862958204</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="C367" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D367" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="E367" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F367" t="n">
-        <v>266991.4234</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-950026.2096958205</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="C368" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="D368" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="E368" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="F368" t="n">
-        <v>122514.3068</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-950026.2096958205</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="C369" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="D369" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="E369" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F369" t="n">
-        <v>599.8200000000001</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-949426.3896958205</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="C370" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="D370" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="E370" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="F370" t="n">
-        <v>50033.8652</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-899392.5244958205</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="C371" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="D371" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="E371" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="F371" t="n">
-        <v>237713.3335</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-661679.1909958206</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="C372" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="D372" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="E372" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="F372" t="n">
-        <v>8243.4444</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-653435.7465958205</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="C373" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="D373" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="E373" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="F373" t="n">
-        <v>45159.0836</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-698594.8301958205</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="C374" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="D374" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="E374" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="F374" t="n">
-        <v>301.3261</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-698594.8301958205</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="C375" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="D375" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="E375" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="F375" t="n">
-        <v>25645.3894</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-672949.4407958206</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="C376" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="D376" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="E376" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="F376" t="n">
-        <v>78672.3659</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-672949.4407958206</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="C377" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="D377" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="E377" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="F377" t="n">
-        <v>203478.4774</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-672949.4407958206</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="C378" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="D378" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="E378" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="F378" t="n">
-        <v>135595.1108682</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-537354.3299276206</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="C379" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="D379" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="E379" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="F379" t="n">
-        <v>72347.2452</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-609701.5751276206</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
-        <v>1</v>
+        <v>1.031538461538462</v>
       </c>
       <c r="M379" t="inlineStr"/>
     </row>
@@ -13263,7 +13843,7 @@
         <v>-609701.5751276206</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13296,7 +13876,7 @@
         <v>-1141501.399927621</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13329,7 +13909,7 @@
         <v>-1141501.399927621</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
